--- a/R/Scaling_biomass_logfile_output.xlsx
+++ b/R/Scaling_biomass_logfile_output.xlsx
@@ -717,7 +717,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -728,6 +728,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -743,11 +749,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14024,8 +14031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DA93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14038,7 +14045,9 @@
     <col min="6" max="6" width="5.42578125"/>
     <col min="7" max="7" width="8.5703125"/>
     <col min="8" max="8" width="2.7109375"/>
-    <col min="9" max="17" width="11.5703125"/>
+    <col min="9" max="13" width="11.5703125"/>
+    <col min="14" max="14" width="11.5703125" style="4"/>
+    <col min="15" max="17" width="11.5703125"/>
     <col min="18" max="18" width="8.5703125"/>
     <col min="19" max="1025" width="11.5703125"/>
   </cols>
@@ -14051,7 +14060,7 @@
       <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>98</v>
       </c>
       <c r="P1" t="s">
@@ -14108,7 +14117,7 @@
         <f t="shared" ref="L3:L34" si="0">I3/K3</f>
         <v>32334.653034096471</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>6637.5</v>
       </c>
       <c r="P3">
@@ -14157,7 +14166,7 @@
         <f t="shared" si="0"/>
         <v>2822.7333005944411</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <v>4510.6719999999996</v>
       </c>
       <c r="P4">
@@ -14206,7 +14215,7 @@
         <f t="shared" si="0"/>
         <v>26200.03927260658</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="4">
         <v>80218.806890000007</v>
       </c>
       <c r="P5">
@@ -14255,7 +14264,7 @@
         <f t="shared" si="0"/>
         <v>5995.7992292521321</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
         <v>2697</v>
       </c>
       <c r="P6">
@@ -14304,7 +14313,7 @@
         <f t="shared" si="0"/>
         <v>111670.90064445119</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>12347.108630000001</v>
       </c>
       <c r="P7">
@@ -14353,7 +14362,7 @@
         <f t="shared" si="0"/>
         <v>1206810.5644298124</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="4">
         <v>3907.9740299999999</v>
       </c>
       <c r="P8">
@@ -14402,7 +14411,7 @@
         <f t="shared" si="0"/>
         <v>577507.28635779093</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <v>35892.089209999998</v>
       </c>
       <c r="P9">
@@ -14451,7 +14460,7 @@
         <f t="shared" si="0"/>
         <v>139983.37891277645</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="4">
         <v>21423.01856</v>
       </c>
       <c r="P10">
@@ -14500,7 +14509,7 @@
         <f t="shared" si="0"/>
         <v>71135.970886628784</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="4">
         <v>8105.2905899999996</v>
       </c>
       <c r="P11">
@@ -14549,7 +14558,7 @@
         <f t="shared" si="0"/>
         <v>14894885.539508017</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="4">
         <v>3646.2221399999999</v>
       </c>
       <c r="P12">
@@ -14598,7 +14607,7 @@
         <f t="shared" si="0"/>
         <v>225341.40876559602</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="4">
         <v>38854.992890000001</v>
       </c>
       <c r="P13">
@@ -14647,7 +14656,7 @@
         <f t="shared" si="0"/>
         <v>5957.3232948961004</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="4">
         <v>98.229510000000005</v>
       </c>
       <c r="P14">
@@ -14696,7 +14705,7 @@
         <f t="shared" si="0"/>
         <v>15827.914287452229</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="4">
         <v>1596.4079999999999</v>
       </c>
       <c r="P15">
@@ -14745,7 +14754,7 @@
         <f t="shared" si="0"/>
         <v>1648.0158820501817</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="4">
         <v>2273.672</v>
       </c>
       <c r="P16">
@@ -14794,7 +14803,7 @@
         <f t="shared" si="0"/>
         <v>16528.972870475995</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="4">
         <v>967.52</v>
       </c>
       <c r="P17">
@@ -14843,7 +14852,7 @@
         <f t="shared" si="0"/>
         <v>49.602847100924279</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="4">
         <v>4.8584350000000001</v>
       </c>
       <c r="P18">
@@ -14892,7 +14901,7 @@
         <f t="shared" si="0"/>
         <v>147735.16644666647</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="4">
         <v>5673.2709999999997</v>
       </c>
       <c r="P19">
@@ -14941,7 +14950,7 @@
         <f t="shared" si="0"/>
         <v>222997.36239896627</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="4">
         <v>12508.14644</v>
       </c>
       <c r="P20">
@@ -14990,7 +14999,7 @@
         <f t="shared" si="0"/>
         <v>10612.170183549215</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="4">
         <v>2343.3339999999998</v>
       </c>
       <c r="P21">
@@ -15039,7 +15048,7 @@
         <f t="shared" si="0"/>
         <v>10288.676864916613</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="4">
         <v>66381.201029999997</v>
       </c>
       <c r="P22">
@@ -15088,7 +15097,7 @@
         <f t="shared" si="0"/>
         <v>2694.3908743179663</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="4">
         <v>3164.95</v>
       </c>
       <c r="P23">
@@ -15137,7 +15146,7 @@
         <f t="shared" si="0"/>
         <v>31106.573378771598</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="4">
         <v>4742.7510000000002</v>
       </c>
       <c r="P24">
@@ -15186,7 +15195,7 @@
         <f t="shared" si="0"/>
         <v>403854.12366757158</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="4">
         <v>312490.47648000001</v>
       </c>
       <c r="P25">
@@ -15235,7 +15244,7 @@
         <f t="shared" si="0"/>
         <v>96441.722771503657</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="4">
         <v>124595.38234</v>
       </c>
       <c r="P26">
@@ -15284,7 +15293,7 @@
         <f t="shared" si="0"/>
         <v>509609.91366317705</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="4">
         <v>639.21481000000006</v>
       </c>
       <c r="P27">
@@ -15333,7 +15342,7 @@
         <f t="shared" si="0"/>
         <v>8018910.9210629696</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="4">
         <v>247495.45460999999</v>
       </c>
       <c r="P28">
@@ -15382,7 +15391,7 @@
         <f t="shared" si="0"/>
         <v>1422359.9165243958</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="4">
         <v>68851.370939999993</v>
       </c>
       <c r="P29">
@@ -15431,7 +15440,7 @@
         <f t="shared" si="0"/>
         <v>1703501.7570472998</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="4">
         <v>858.70898</v>
       </c>
       <c r="P30">
@@ -15480,7 +15489,7 @@
         <f t="shared" si="0"/>
         <v>729671.67014333291</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="4">
         <v>8099.2672199999997</v>
       </c>
       <c r="P31">
@@ -15529,7 +15538,7 @@
         <f t="shared" si="0"/>
         <v>6475507.3071110779</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="4">
         <v>466.91953999999998</v>
       </c>
       <c r="P32">
@@ -15578,7 +15587,7 @@
         <f t="shared" si="0"/>
         <v>144879.66255601178</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="4">
         <v>204570.50472</v>
       </c>
       <c r="P33">
@@ -15627,7 +15636,7 @@
         <f t="shared" si="0"/>
         <v>1825653.1900334202</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="4">
         <v>68242.971520000006</v>
       </c>
       <c r="P34">
@@ -15676,7 +15685,7 @@
         <f t="shared" ref="L35:L66" si="2">I35/K35</f>
         <v>13241005.419341654</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="4">
         <v>26.160060000000001</v>
       </c>
       <c r="P35">
@@ -15725,7 +15734,7 @@
         <f t="shared" si="2"/>
         <v>1439847.8832143997</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="4">
         <v>444.32128</v>
       </c>
       <c r="P36">
@@ -15774,7 +15783,7 @@
         <f t="shared" si="2"/>
         <v>4667431.6609816672</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="4">
         <v>2041.1949999999999</v>
       </c>
       <c r="P37">
@@ -15823,7 +15832,7 @@
         <f t="shared" si="2"/>
         <v>1378593.9375233175</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="4">
         <v>385.52397999999999</v>
       </c>
       <c r="P38">
@@ -15872,7 +15881,7 @@
         <f t="shared" si="2"/>
         <v>1576378.5021292702</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="4">
         <v>6193.6677499999996</v>
       </c>
       <c r="P39">
@@ -15921,7 +15930,7 @@
         <f t="shared" si="2"/>
         <v>12307508.263326706</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="4">
         <v>638.52646000000004</v>
       </c>
       <c r="P40">
@@ -15970,7 +15979,7 @@
         <f t="shared" si="2"/>
         <v>411424.26558740315</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="4">
         <v>287990.48550000001</v>
       </c>
       <c r="P41">
@@ -16019,7 +16028,7 @@
         <f t="shared" si="2"/>
         <v>457742.32358836627</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="4">
         <v>837622.32530000003</v>
       </c>
       <c r="P42">
@@ -16068,7 +16077,7 @@
         <f t="shared" si="2"/>
         <v>24584.945959613968</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="4">
         <v>88958.136549999996</v>
       </c>
       <c r="P43">
@@ -16117,7 +16126,7 @@
         <f t="shared" si="2"/>
         <v>3958043.864978971</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="4">
         <v>633208.32400000002</v>
       </c>
       <c r="P44">
@@ -16166,7 +16175,7 @@
         <f t="shared" si="2"/>
         <v>44682.626845092025</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="4">
         <v>17226.46154</v>
       </c>
       <c r="P45">
@@ -16215,7 +16224,7 @@
         <f t="shared" si="2"/>
         <v>191776.89952824815</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="4">
         <v>3484.8640300000002</v>
       </c>
       <c r="P46">
@@ -16264,7 +16273,7 @@
         <f t="shared" si="2"/>
         <v>2433692.147976046</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="4">
         <v>1253.7247</v>
       </c>
       <c r="P47">
@@ -16313,7 +16322,7 @@
         <f t="shared" si="2"/>
         <v>3949.3787702076143</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="4">
         <v>2873.4</v>
       </c>
       <c r="P48">
@@ -16362,7 +16371,7 @@
         <f t="shared" si="2"/>
         <v>6187.1282814849856</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="4">
         <v>1436.7</v>
       </c>
       <c r="P49">
@@ -16411,7 +16420,7 @@
         <f t="shared" si="2"/>
         <v>18480.448327821337</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="4">
         <v>3114.6878999999999</v>
       </c>
       <c r="P50">
@@ -16460,7 +16469,7 @@
         <f t="shared" si="2"/>
         <v>2716651.003264348</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="4">
         <v>128678.71575</v>
       </c>
       <c r="P51">
@@ -16509,7 +16518,7 @@
         <f t="shared" si="2"/>
         <v>541928.45997168473</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="4">
         <v>130790.82432</v>
       </c>
       <c r="P52">
@@ -16558,7 +16567,7 @@
         <f t="shared" si="2"/>
         <v>3629917.3480213298</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="4">
         <v>181995.72683</v>
       </c>
       <c r="P53">
@@ -16607,7 +16616,7 @@
         <f t="shared" si="2"/>
         <v>832.33159773690284</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="4">
         <v>1808.5</v>
       </c>
       <c r="P54">
@@ -16656,7 +16665,7 @@
         <f t="shared" si="2"/>
         <v>17644.875052242092</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="4">
         <v>7660.8</v>
       </c>
       <c r="P55">
@@ -16705,7 +16714,7 @@
         <f t="shared" si="2"/>
         <v>2298.431124876035</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="4">
         <v>803.2</v>
       </c>
       <c r="P56">
@@ -16754,7 +16763,7 @@
         <f t="shared" si="2"/>
         <v>100092.98783058119</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="4">
         <v>18046.14</v>
       </c>
       <c r="P57">
@@ -16803,7 +16812,7 @@
         <f t="shared" si="2"/>
         <v>81860.843754175454</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="4">
         <v>72184.56</v>
       </c>
       <c r="P58">
@@ -16852,7 +16861,7 @@
         <f t="shared" si="2"/>
         <v>10617.124344696853</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="4">
         <v>11998.44</v>
       </c>
       <c r="P59">
@@ -16901,7 +16910,7 @@
         <f t="shared" si="2"/>
         <v>631039.9356368247</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="4">
         <v>7998.96</v>
       </c>
       <c r="P60">
@@ -16950,7 +16959,7 @@
         <f t="shared" si="2"/>
         <v>1251262.3298339883</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="4">
         <v>2616.0059999999999</v>
       </c>
       <c r="P61">
@@ -16999,7 +17008,7 @@
         <f t="shared" si="2"/>
         <v>89206.458132</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="4">
         <v>44619.42</v>
       </c>
       <c r="P62" s="3">
@@ -17048,7 +17057,7 @@
         <f t="shared" si="2"/>
         <v>59470.972088000002</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="4">
         <v>29746.28</v>
       </c>
       <c r="P63" s="3">
@@ -17097,7 +17106,7 @@
         <f t="shared" si="2"/>
         <v>56361.683889</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="4">
         <v>4656.1183199999996</v>
       </c>
       <c r="P64" s="3">
@@ -17146,7 +17155,7 @@
         <f t="shared" si="2"/>
         <v>18111.507552999999</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="4">
         <v>6.5920009999999998</v>
       </c>
       <c r="P65" s="3">
@@ -17195,7 +17204,7 @@
         <f t="shared" si="2"/>
         <v>18111.507552999999</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="4">
         <v>181253.05</v>
       </c>
       <c r="P66" s="3">
@@ -17241,10 +17250,10 @@
         <v>1</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L98" si="4">I67/K67</f>
+        <f t="shared" ref="L67:L91" si="4">I67/K67</f>
         <v>18017.283443</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="4">
         <v>1540650.925</v>
       </c>
       <c r="P67" s="3">
@@ -17293,7 +17302,7 @@
         <f t="shared" si="4"/>
         <v>50305.658228</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="4">
         <v>5035438.5999999996</v>
       </c>
       <c r="P68" s="3">
@@ -17342,7 +17351,7 @@
         <f t="shared" si="4"/>
         <v>20548.220792</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="4">
         <v>20570</v>
       </c>
       <c r="P69" s="3">
@@ -17391,7 +17400,7 @@
         <f t="shared" si="4"/>
         <v>8411.5164480000003</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="4">
         <v>7.1902939999999997</v>
       </c>
       <c r="P70" s="3">
@@ -17440,7 +17449,7 @@
         <f t="shared" si="4"/>
         <v>803070.14760000003</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="4">
         <v>723132.18</v>
       </c>
       <c r="P71" s="3">
@@ -17489,7 +17498,7 @@
         <f t="shared" si="4"/>
         <v>38931.483149</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="4">
         <v>1704.171</v>
       </c>
       <c r="P72" s="3">
@@ -17538,7 +17547,7 @@
         <f t="shared" si="4"/>
         <v>38931.483149</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="4">
         <v>3018.587</v>
       </c>
       <c r="P73" s="3">
@@ -17587,7 +17596,7 @@
         <f t="shared" si="4"/>
         <v>1014574.10599</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="4">
         <v>88497.144625719302</v>
       </c>
       <c r="P74" s="3">
@@ -17636,7 +17645,7 @@
         <f t="shared" si="4"/>
         <v>37503.620778999997</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="4">
         <v>375230138.30000001</v>
       </c>
       <c r="P75" s="3">
@@ -17685,7 +17694,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N76" t="e">
+      <c r="N76" s="4" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
@@ -17732,7 +17741,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N77" t="e">
+      <c r="N77" s="4" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
@@ -17779,7 +17788,7 @@
         <f t="shared" si="4"/>
         <v>602095.65274299996</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="4">
         <v>6025037.2999999998</v>
       </c>
       <c r="P78" s="3">
@@ -17828,7 +17837,7 @@
         <f t="shared" si="4"/>
         <v>1737186.756822</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="4">
         <v>151644.371947782</v>
       </c>
       <c r="P79" s="3">
@@ -17877,7 +17886,7 @@
         <f t="shared" si="4"/>
         <v>205524.48199500001</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="4">
         <v>548371.06777746405</v>
       </c>
       <c r="P80" s="3">
@@ -17926,7 +17935,7 @@
         <f t="shared" si="4"/>
         <v>68444.349277999994</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="4">
         <v>201134.73789574299</v>
       </c>
       <c r="P81" s="3">
@@ -17975,7 +17984,7 @@
         <f t="shared" si="4"/>
         <v>68444.349277999994</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="4">
         <v>163315.90861250801</v>
       </c>
       <c r="P82" s="3">
@@ -18024,7 +18033,7 @@
         <f t="shared" si="4"/>
         <v>1087701.814337</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="4">
         <v>94440.610721329402</v>
       </c>
       <c r="P83" s="3">
@@ -18073,7 +18082,7 @@
         <f t="shared" si="4"/>
         <v>4285665.1151689999</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="4">
         <v>374087.87270517001</v>
       </c>
       <c r="P84" s="3">
@@ -18122,7 +18131,7 @@
         <f t="shared" si="4"/>
         <v>31811.945437999999</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="4">
         <v>31842.799999999999</v>
       </c>
       <c r="P85" s="3">
@@ -18171,7 +18180,7 @@
         <f t="shared" si="4"/>
         <v>15052.391319</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="4">
         <v>15062593.300000001</v>
       </c>
       <c r="P86" s="3">
@@ -18220,7 +18229,7 @@
         <f t="shared" si="4"/>
         <v>6020.9565270000003</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="4">
         <v>60250373.299999997</v>
       </c>
       <c r="P87" s="3">
@@ -18269,7 +18278,7 @@
         <f t="shared" si="4"/>
         <v>15052391.318573</v>
       </c>
-      <c r="N88" t="e">
+      <c r="N88" s="4" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
@@ -18316,7 +18325,7 @@
         <f t="shared" si="4"/>
         <v>60209.565274</v>
       </c>
-      <c r="N89" t="e">
+      <c r="N89" s="4" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
@@ -18363,7 +18372,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N90" t="e">
+      <c r="N90" s="4" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
@@ -18410,7 +18419,7 @@
         <f t="shared" si="4"/>
         <v>329357996.66267502</v>
       </c>
-      <c r="N91" t="e">
+      <c r="N91" s="4" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>

--- a/R/Scaling_biomass_logfile_output.xlsx
+++ b/R/Scaling_biomass_logfile_output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="839" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="839" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="20180619b" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="20180719a" sheetId="4" r:id="rId4"/>
     <sheet name="20180809a" sheetId="5" r:id="rId5"/>
     <sheet name="20180814dtb_scale" sheetId="6" r:id="rId6"/>
-    <sheet name="desiredBiomass" sheetId="7" r:id="rId7"/>
+    <sheet name="NSH" sheetId="8" r:id="rId7"/>
+    <sheet name="desiredBiomass" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4541" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="240">
   <si>
     <t>Time:</t>
   </si>
@@ -699,6 +700,57 @@
   </si>
   <si>
     <t>order</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Northern_Shrimp_N1 =</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  _</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Loligo_Squid_N1 =</t>
+  </si>
+  <si>
+    <t>FNSH_S1</t>
+  </si>
+  <si>
+    <t>FNSH_S2</t>
+  </si>
+  <si>
+    <t>FNSH_S3</t>
+  </si>
+  <si>
+    <t>FNSH_S4</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>stock boundary</t>
+  </si>
+  <si>
+    <t>N_layers</t>
+  </si>
+  <si>
+    <t>biomass(mg)/20/5.7*boxBioPctScalar/nLayers/boxVol</t>
+  </si>
+  <si>
+    <t>COPY INTO ALL RELEVANT CELLS</t>
+  </si>
+  <si>
+    <t>BoxBioPct</t>
   </si>
 </sst>
 </file>
@@ -708,7 +760,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -716,8 +768,33 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFC5C8C6"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -736,8 +813,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1D1F21"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4E5C68"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -745,18 +839,151 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0C1F30"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0C1F30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -14031,8 +14258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DA93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P87" sqref="P87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18712,6 +18939,3237 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="P1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L2" t="s">
+        <v>224</v>
+      </c>
+      <c r="M2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3.00752E-4</v>
+      </c>
+      <c r="R2">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="S2">
+        <v>9.0225600000000004E-4</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1.052632E-3</v>
+      </c>
+      <c r="V2">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="W2">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="X2">
+        <v>3.7593980000000002E-3</v>
+      </c>
+      <c r="Y2">
+        <v>9.0225600000000004E-4</v>
+      </c>
+      <c r="Z2">
+        <v>0.20225563799999999</v>
+      </c>
+      <c r="AA2">
+        <v>7.1578947000000004E-2</v>
+      </c>
+      <c r="AB2">
+        <v>1.2330827000000001E-2</v>
+      </c>
+      <c r="AC2">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="AD2">
+        <v>1.203008E-3</v>
+      </c>
+      <c r="AE2">
+        <v>7.5188000000000002E-4</v>
+      </c>
+      <c r="AF2">
+        <v>0.51488721599999998</v>
+      </c>
+      <c r="AG2">
+        <v>4.8571428999999999E-2</v>
+      </c>
+      <c r="AH2">
+        <v>7.6691729E-2</v>
+      </c>
+      <c r="AI2">
+        <v>2.8721805E-2</v>
+      </c>
+      <c r="AJ2">
+        <v>2.2857143E-2</v>
+      </c>
+      <c r="AK2">
+        <v>5.7142859999999998E-3</v>
+      </c>
+      <c r="AL2">
+        <v>5.7142859999999998E-3</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I3">
+        <v>2.95021E-2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K3" t="s">
+        <v>224</v>
+      </c>
+      <c r="L3" t="s">
+        <v>224</v>
+      </c>
+      <c r="M3">
+        <v>2.95021E-2</v>
+      </c>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4">
+        <v>4.56455968E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L4" t="s">
+        <v>224</v>
+      </c>
+      <c r="M4">
+        <v>4.56455968E-2</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I5">
+        <v>2.21814992E-2</v>
+      </c>
+      <c r="J5">
+        <v>2.21814992E-2</v>
+      </c>
+      <c r="K5">
+        <v>2.21814992E-2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M5">
+        <v>2.21814992E-2</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3.00752E-4</v>
+      </c>
+      <c r="R5">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="S5">
+        <v>9.0225600000000004E-4</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1.052632E-3</v>
+      </c>
+      <c r="V5">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="W5">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="X5">
+        <v>3.7593980000000002E-3</v>
+      </c>
+      <c r="Y5">
+        <v>9.0225600000000004E-4</v>
+      </c>
+      <c r="Z5">
+        <v>0.20225563799999999</v>
+      </c>
+      <c r="AA5">
+        <v>7.1578947000000004E-2</v>
+      </c>
+      <c r="AB5">
+        <v>1.2330827000000001E-2</v>
+      </c>
+      <c r="AC5">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="AD5">
+        <v>1.203008E-3</v>
+      </c>
+      <c r="AE5">
+        <v>7.5188000000000002E-4</v>
+      </c>
+      <c r="AF5">
+        <v>0.51488721599999998</v>
+      </c>
+      <c r="AG5">
+        <v>4.8571428999999999E-2</v>
+      </c>
+      <c r="AH5">
+        <v>7.6691729E-2</v>
+      </c>
+      <c r="AI5">
+        <v>2.8721805E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>2.2857143E-2</v>
+      </c>
+      <c r="AK5">
+        <v>5.7142859999999998E-3</v>
+      </c>
+      <c r="AL5">
+        <v>5.7142859999999998E-3</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I6">
+        <v>1.8767691199999999E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>224</v>
+      </c>
+      <c r="K6" t="s">
+        <v>224</v>
+      </c>
+      <c r="L6" t="s">
+        <v>224</v>
+      </c>
+      <c r="M6">
+        <v>1.8767691199999999E-2</v>
+      </c>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7">
+        <v>1.3906516000000001E-2</v>
+      </c>
+      <c r="J7">
+        <v>1.3906516000000001E-2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M7">
+        <v>1.3906516000000001E-2</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" t="s">
+        <v>225</v>
+      </c>
+      <c r="I8">
+        <v>1.4307304E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.4307304E-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>224</v>
+      </c>
+      <c r="L8" t="s">
+        <v>224</v>
+      </c>
+      <c r="M8">
+        <v>1.4307304E-2</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>3.00752E-4</v>
+      </c>
+      <c r="R8">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="S8">
+        <v>9.0225600000000004E-4</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>1.052632E-3</v>
+      </c>
+      <c r="V8">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="W8">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="X8">
+        <v>3.7593980000000002E-3</v>
+      </c>
+      <c r="Y8">
+        <v>9.0225600000000004E-4</v>
+      </c>
+      <c r="Z8">
+        <v>0.20225563799999999</v>
+      </c>
+      <c r="AA8">
+        <v>7.1578947000000004E-2</v>
+      </c>
+      <c r="AB8">
+        <v>1.2330827000000001E-2</v>
+      </c>
+      <c r="AC8">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="AD8">
+        <v>1.203008E-3</v>
+      </c>
+      <c r="AE8">
+        <v>7.5188000000000002E-4</v>
+      </c>
+      <c r="AF8">
+        <v>0.51488721599999998</v>
+      </c>
+      <c r="AG8">
+        <v>4.8571428999999999E-2</v>
+      </c>
+      <c r="AH8">
+        <v>7.6691729E-2</v>
+      </c>
+      <c r="AI8">
+        <v>2.8721805E-2</v>
+      </c>
+      <c r="AJ8">
+        <v>2.2857143E-2</v>
+      </c>
+      <c r="AK8">
+        <v>5.7142859999999998E-3</v>
+      </c>
+      <c r="AL8">
+        <v>5.7142859999999998E-3</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G9" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9">
+        <v>4.2745036E-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>224</v>
+      </c>
+      <c r="K9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L9" t="s">
+        <v>224</v>
+      </c>
+      <c r="M9">
+        <v>4.2745036E-2</v>
+      </c>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>4.7021820000000001E-3</v>
+      </c>
+      <c r="D10">
+        <v>4.7021820000000001E-3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I10">
+        <v>1.5953438399999999E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.5953438399999999E-2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>224</v>
+      </c>
+      <c r="L10" t="s">
+        <v>224</v>
+      </c>
+      <c r="M10">
+        <v>1.5953438399999999E-2</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11">
+        <v>1.5901989599999999E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.5901989599999999E-2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>224</v>
+      </c>
+      <c r="L11" t="s">
+        <v>224</v>
+      </c>
+      <c r="M11">
+        <v>1.5901989599999999E-2</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>3.00752E-4</v>
+      </c>
+      <c r="R11">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="S11">
+        <v>9.0225600000000004E-4</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1.052632E-3</v>
+      </c>
+      <c r="V11">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="W11">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="X11">
+        <v>3.7593980000000002E-3</v>
+      </c>
+      <c r="Y11">
+        <v>9.0225600000000004E-4</v>
+      </c>
+      <c r="Z11">
+        <v>0.20225563799999999</v>
+      </c>
+      <c r="AA11">
+        <v>7.1578947000000004E-2</v>
+      </c>
+      <c r="AB11">
+        <v>1.2330827000000001E-2</v>
+      </c>
+      <c r="AC11">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="AD11">
+        <v>1.203008E-3</v>
+      </c>
+      <c r="AE11">
+        <v>7.5188000000000002E-4</v>
+      </c>
+      <c r="AF11">
+        <v>0.51488721599999998</v>
+      </c>
+      <c r="AG11">
+        <v>4.8571428999999999E-2</v>
+      </c>
+      <c r="AH11">
+        <v>7.6691729E-2</v>
+      </c>
+      <c r="AI11">
+        <v>2.8721805E-2</v>
+      </c>
+      <c r="AJ11">
+        <v>2.2857143E-2</v>
+      </c>
+      <c r="AK11">
+        <v>5.7142859999999998E-3</v>
+      </c>
+      <c r="AL11">
+        <v>5.7142859999999998E-3</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.6200000000000001E-5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.6200000000000001E-5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12">
+        <v>6.3926375999999998E-3</v>
+      </c>
+      <c r="J12">
+        <v>6.3926375999999998E-3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>224</v>
+      </c>
+      <c r="L12" t="s">
+        <v>224</v>
+      </c>
+      <c r="M12">
+        <v>6.3926375999999998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.52E-5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.52E-5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.52E-5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" t="s">
+        <v>225</v>
+      </c>
+      <c r="I13">
+        <v>1.3157544000000001E-3</v>
+      </c>
+      <c r="J13">
+        <v>1.3157544000000001E-3</v>
+      </c>
+      <c r="K13">
+        <v>1.3157544000000001E-3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>224</v>
+      </c>
+      <c r="M13">
+        <v>1.3157544000000001E-3</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="P13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.2931200000000001E-5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.2931200000000001E-5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14">
+        <v>9.2739264000000002E-3</v>
+      </c>
+      <c r="J14">
+        <v>9.2739264000000002E-3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>224</v>
+      </c>
+      <c r="L14" t="s">
+        <v>224</v>
+      </c>
+      <c r="M14">
+        <v>9.2739264000000002E-3</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="AA14">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="AB14">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="AC14">
+        <v>0.114</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="AG14">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="AH14">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="AI14">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="AJ14">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="AK14">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="AL14">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>5.7767560000000001E-3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I15">
+        <v>1.3226912E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>224</v>
+      </c>
+      <c r="K15" t="s">
+        <v>224</v>
+      </c>
+      <c r="L15" t="s">
+        <v>224</v>
+      </c>
+      <c r="M15">
+        <v>1.3226912E-2</v>
+      </c>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G16" t="s">
+        <v>225</v>
+      </c>
+      <c r="I16">
+        <v>4.6199911999999996E-3</v>
+      </c>
+      <c r="J16">
+        <v>4.6199911999999996E-3</v>
+      </c>
+      <c r="K16">
+        <v>4.6199911999999996E-3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>224</v>
+      </c>
+      <c r="M16">
+        <v>4.6199911999999996E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" t="s">
+        <v>225</v>
+      </c>
+      <c r="I17">
+        <v>4.4117840000000002E-3</v>
+      </c>
+      <c r="J17">
+        <v>4.4117840000000002E-3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>224</v>
+      </c>
+      <c r="L17" t="s">
+        <v>224</v>
+      </c>
+      <c r="M17">
+        <v>4.4117840000000002E-3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>233</v>
+      </c>
+      <c r="P17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.7378900000000001E-4</v>
+      </c>
+      <c r="D18">
+        <v>1.7378900000000001E-4</v>
+      </c>
+      <c r="E18">
+        <v>1.7378900000000001E-4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G18" t="s">
+        <v>225</v>
+      </c>
+      <c r="I18">
+        <v>8.5796560000000002E-4</v>
+      </c>
+      <c r="J18">
+        <v>8.5796560000000002E-4</v>
+      </c>
+      <c r="K18">
+        <v>8.5796560000000002E-4</v>
+      </c>
+      <c r="L18" t="s">
+        <v>224</v>
+      </c>
+      <c r="M18">
+        <v>8.5796560000000002E-4</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0.5323</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0.23860000000000001</v>
+      </c>
+      <c r="AH18">
+        <v>0.2291</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.3667600000000001E-5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5.3667600000000001E-5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" t="s">
+        <v>225</v>
+      </c>
+      <c r="I19">
+        <v>1.1743445599999999E-2</v>
+      </c>
+      <c r="J19">
+        <v>1.1743445599999999E-2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s">
+        <v>224</v>
+      </c>
+      <c r="M19">
+        <v>1.1743445599999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.3667600000000001E-5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.3667600000000001E-5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" t="s">
+        <v>225</v>
+      </c>
+      <c r="I20">
+        <v>6.2251436E-2</v>
+      </c>
+      <c r="J20">
+        <v>6.2251436E-2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>224</v>
+      </c>
+      <c r="L20" t="s">
+        <v>224</v>
+      </c>
+      <c r="M20">
+        <v>6.2251436E-2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>234</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5.3667600000000001E-5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.3667600000000001E-5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5.3667600000000001E-5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>224</v>
+      </c>
+      <c r="G21" t="s">
+        <v>225</v>
+      </c>
+      <c r="I21">
+        <v>4.7369600000000001E-4</v>
+      </c>
+      <c r="J21">
+        <v>4.7369600000000001E-4</v>
+      </c>
+      <c r="K21">
+        <v>4.7369600000000001E-4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M21">
+        <v>4.7369600000000001E-4</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0.3553</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0.25169999999999998</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8.3600000000000001E-11</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8.3600000000000001E-11</v>
+      </c>
+      <c r="E22" s="1">
+        <v>8.3600000000000001E-11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" t="s">
+        <v>225</v>
+      </c>
+      <c r="I22">
+        <v>4.475816E-4</v>
+      </c>
+      <c r="J22">
+        <v>4.475816E-4</v>
+      </c>
+      <c r="K22">
+        <v>4.475816E-4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22">
+        <v>4.475816E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.3699999999999999E-11</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5.3699999999999999E-11</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.5199999999999999E-10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" t="s">
+        <v>225</v>
+      </c>
+      <c r="I23">
+        <v>9.55096E-4</v>
+      </c>
+      <c r="J23">
+        <v>9.55096E-4</v>
+      </c>
+      <c r="K23">
+        <v>9.55096E-4</v>
+      </c>
+      <c r="L23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23">
+        <v>9.55096E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.5199999999999999E-10</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.5199999999999999E-10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" t="s">
+        <v>225</v>
+      </c>
+      <c r="I24">
+        <v>7.4122160000000001E-4</v>
+      </c>
+      <c r="J24">
+        <v>7.4122160000000001E-4</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24">
+        <v>7.4122160000000001E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" t="s">
+        <v>225</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" t="s">
+        <v>225</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" t="s">
+        <v>224</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>225</v>
+      </c>
+      <c r="I27">
+        <v>7.4122160000000001E-4</v>
+      </c>
+      <c r="J27">
+        <v>7.4122160000000001E-4</v>
+      </c>
+      <c r="K27" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27">
+        <v>7.4122160000000001E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" t="s">
+        <v>224</v>
+      </c>
+      <c r="E28" t="s">
+        <v>224</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
+        <v>225</v>
+      </c>
+      <c r="I28">
+        <v>9.55096E-4</v>
+      </c>
+      <c r="J28">
+        <v>9.55096E-4</v>
+      </c>
+      <c r="K28">
+        <v>9.55096E-4</v>
+      </c>
+      <c r="L28" t="s">
+        <v>224</v>
+      </c>
+      <c r="M28">
+        <v>9.55096E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" t="s">
+        <v>224</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>225</v>
+      </c>
+      <c r="I29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" t="s">
+        <v>224</v>
+      </c>
+      <c r="G30" t="s">
+        <v>225</v>
+      </c>
+      <c r="I30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" t="s">
+        <v>224</v>
+      </c>
+      <c r="E31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="s">
+        <v>226</v>
+      </c>
+      <c r="I31">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J31">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K31">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L31">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M31">
+        <v>1.6E-2</v>
+      </c>
+      <c r="P31" s="1">
+        <v>45000000000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>239</v>
+      </c>
+      <c r="H32" t="s">
+        <v>236</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="7">
+        <v>50</v>
+      </c>
+      <c r="L33" s="7">
+        <v>12647072876</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2</v>
+      </c>
+      <c r="N33" s="8">
+        <v>1264707000000</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" ref="P33:P40" si="0">$P$31/20/5.7*B33/H33/N33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" s="9">
+        <v>2</v>
+      </c>
+      <c r="J34" s="7">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="K34" s="7">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L34" s="7">
+        <v>12286957937</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="8">
+        <v>216250500000</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="9">
+        <v>3</v>
+      </c>
+      <c r="J35" s="7">
+        <v>-36.5</v>
+      </c>
+      <c r="K35" s="7">
+        <v>36.5</v>
+      </c>
+      <c r="L35" s="7">
+        <v>29971254486</v>
+      </c>
+      <c r="M35" s="7">
+        <v>1</v>
+      </c>
+      <c r="N35" s="8">
+        <v>1093951000000</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36" s="9">
+        <v>4</v>
+      </c>
+      <c r="J36" s="7">
+        <v>-128.5</v>
+      </c>
+      <c r="K36" s="7">
+        <v>50</v>
+      </c>
+      <c r="L36" s="7">
+        <v>13938887160</v>
+      </c>
+      <c r="M36" s="7">
+        <v>3</v>
+      </c>
+      <c r="N36" s="8">
+        <v>1791147000000</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" s="9">
+        <v>5</v>
+      </c>
+      <c r="J37" s="7">
+        <v>-20.5</v>
+      </c>
+      <c r="K37" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="L37" s="7">
+        <v>3686010853</v>
+      </c>
+      <c r="M37" s="7">
+        <v>1</v>
+      </c>
+      <c r="N37" s="8">
+        <v>75563220000</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38" s="9">
+        <v>6</v>
+      </c>
+      <c r="J38" s="7">
+        <v>-106</v>
+      </c>
+      <c r="K38" s="7">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7">
+        <v>11079367895</v>
+      </c>
+      <c r="M38" s="7">
+        <v>2</v>
+      </c>
+      <c r="N38" s="8">
+        <v>1174413000000</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39" s="9">
+        <v>7</v>
+      </c>
+      <c r="J39" s="7">
+        <v>-109.9</v>
+      </c>
+      <c r="K39" s="7">
+        <v>50</v>
+      </c>
+      <c r="L39" s="7">
+        <v>19434502995</v>
+      </c>
+      <c r="M39" s="7">
+        <v>2</v>
+      </c>
+      <c r="N39" s="8">
+        <v>2135852000000</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" s="9">
+        <v>8</v>
+      </c>
+      <c r="J40" s="7">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="K40" s="7">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="L40" s="7">
+        <v>10361542520</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1</v>
+      </c>
+      <c r="N40" s="8">
+        <v>350220100000</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C41" s="17">
+        <v>3.0573402278289169E-2</v>
+      </c>
+      <c r="D41" s="15">
+        <v>3.0573402278289169E-2</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41" s="9">
+        <v>9</v>
+      </c>
+      <c r="J41" s="7">
+        <v>-52</v>
+      </c>
+      <c r="K41" s="7">
+        <v>50</v>
+      </c>
+      <c r="L41" s="7">
+        <v>6455559422</v>
+      </c>
+      <c r="M41" s="7">
+        <v>2</v>
+      </c>
+      <c r="N41" s="8">
+        <v>335689100000</v>
+      </c>
+      <c r="P41" s="1">
+        <f>$P$31/20/5.7*B41/H41/N41</f>
+        <v>3.0573402278289169E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42" s="9">
+        <v>10</v>
+      </c>
+      <c r="J42" s="7">
+        <v>-85.3</v>
+      </c>
+      <c r="K42" s="7">
+        <v>50</v>
+      </c>
+      <c r="L42" s="7">
+        <v>17316802511</v>
+      </c>
+      <c r="M42" s="7">
+        <v>2</v>
+      </c>
+      <c r="N42" s="8">
+        <v>1477123000000</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" ref="P42:P62" si="1">$P$31/20/5.7*B42/H42/N42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="C43" s="14">
+        <v>2.1108827137398572E-2</v>
+      </c>
+      <c r="D43" s="15">
+        <v>2.1108827137398572E-2</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43" s="9">
+        <v>11</v>
+      </c>
+      <c r="J43" s="7">
+        <v>-75.3</v>
+      </c>
+      <c r="K43" s="7">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7">
+        <v>11225017827</v>
+      </c>
+      <c r="M43" s="7">
+        <v>2</v>
+      </c>
+      <c r="N43" s="8">
+        <v>845243800000</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1108827137398572E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="C44" s="14">
+        <v>5.7063444387811567E-3</v>
+      </c>
+      <c r="D44" s="15">
+        <v>5.7063444387811567E-3</v>
+      </c>
+      <c r="E44" s="15">
+        <v>5.7063444387811567E-3</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44" s="9">
+        <v>12</v>
+      </c>
+      <c r="J44" s="7">
+        <v>-185.6</v>
+      </c>
+      <c r="K44" s="7">
+        <v>50</v>
+      </c>
+      <c r="L44" s="7">
+        <v>15989283041</v>
+      </c>
+      <c r="M44" s="7">
+        <v>3</v>
+      </c>
+      <c r="N44" s="8">
+        <v>2967611000000</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7063444387811567E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="C45" s="14">
+        <v>1.4481667457081206E-2</v>
+      </c>
+      <c r="D45" s="15">
+        <v>1.4481667457081206E-2</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45" s="9">
+        <v>13</v>
+      </c>
+      <c r="J45" s="7">
+        <v>-109.8</v>
+      </c>
+      <c r="K45" s="7">
+        <v>50</v>
+      </c>
+      <c r="L45" s="7">
+        <v>4282287423</v>
+      </c>
+      <c r="M45" s="7">
+        <v>2</v>
+      </c>
+      <c r="N45" s="8">
+        <v>470195200000</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4481667457081206E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>0.114</v>
+      </c>
+      <c r="C46" s="14">
+        <v>6.4981639798683988E-2</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" s="9">
+        <v>14</v>
+      </c>
+      <c r="J46" s="7">
+        <v>-48.9</v>
+      </c>
+      <c r="K46" s="7">
+        <v>48.9</v>
+      </c>
+      <c r="L46" s="7">
+        <v>14161620805</v>
+      </c>
+      <c r="M46" s="7">
+        <v>1</v>
+      </c>
+      <c r="N46" s="8">
+        <v>692503300000</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4981639798683988E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47" s="9">
+        <v>15</v>
+      </c>
+      <c r="J47" s="7">
+        <v>-138.80000000000001</v>
+      </c>
+      <c r="K47" s="7">
+        <v>50</v>
+      </c>
+      <c r="L47" s="7">
+        <v>12608709589</v>
+      </c>
+      <c r="M47" s="7">
+        <v>3</v>
+      </c>
+      <c r="N47" s="8">
+        <v>1750089000000</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" s="9">
+        <v>16</v>
+      </c>
+      <c r="J48" s="7">
+        <v>-101.8</v>
+      </c>
+      <c r="K48" s="7">
+        <v>50</v>
+      </c>
+      <c r="L48" s="7">
+        <v>9175347755</v>
+      </c>
+      <c r="M48" s="7">
+        <v>2</v>
+      </c>
+      <c r="N48" s="8">
+        <v>934050400000</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="C49" s="14">
+        <v>6.7926514832037542E-3</v>
+      </c>
+      <c r="D49" s="15">
+        <v>6.7926514832037542E-3</v>
+      </c>
+      <c r="E49" s="15">
+        <v>6.7926514832037542E-3</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49" s="9">
+        <v>17</v>
+      </c>
+      <c r="J49" s="7">
+        <v>-156</v>
+      </c>
+      <c r="K49" s="7">
+        <v>50</v>
+      </c>
+      <c r="L49" s="7">
+        <v>11324453301</v>
+      </c>
+      <c r="M49" s="7">
+        <v>3</v>
+      </c>
+      <c r="N49" s="8">
+        <v>1766615000000</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="1"/>
+        <v>6.7926514832037542E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>17</v>
+      </c>
+      <c r="B50">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="C50" s="14">
+        <v>1.9400287828099102E-2</v>
+      </c>
+      <c r="D50" s="18">
+        <v>1.9400287828099102E-2</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50" s="9">
+        <v>18</v>
+      </c>
+      <c r="J50" s="7">
+        <v>-81.900000000000006</v>
+      </c>
+      <c r="K50" s="7">
+        <v>50</v>
+      </c>
+      <c r="L50" s="7">
+        <v>5030841128</v>
+      </c>
+      <c r="M50" s="7">
+        <v>2</v>
+      </c>
+      <c r="N50" s="8">
+        <v>412025900000</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9400287828099102E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="C51" s="14">
+        <v>1.8392655758024037E-2</v>
+      </c>
+      <c r="D51" s="18">
+        <v>1.8392655758024037E-2</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51" s="9">
+        <v>19</v>
+      </c>
+      <c r="J51" s="7">
+        <v>-86.4</v>
+      </c>
+      <c r="K51" s="7">
+        <v>50</v>
+      </c>
+      <c r="L51" s="7">
+        <v>4831356901</v>
+      </c>
+      <c r="M51" s="7">
+        <v>2</v>
+      </c>
+      <c r="N51" s="8">
+        <v>417429200000</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8392655758024037E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>19</v>
+      </c>
+      <c r="B52">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="C52" s="14">
+        <v>5.3143143366253523E-3</v>
+      </c>
+      <c r="D52" s="15">
+        <v>5.3143143366253523E-3</v>
+      </c>
+      <c r="E52" s="15">
+        <v>5.3143143366253523E-3</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52" s="9">
+        <v>20</v>
+      </c>
+      <c r="J52" s="7">
+        <v>-199.1</v>
+      </c>
+      <c r="K52" s="7">
+        <v>50</v>
+      </c>
+      <c r="L52" s="7">
+        <v>17683470543</v>
+      </c>
+      <c r="M52" s="7">
+        <v>3</v>
+      </c>
+      <c r="N52" s="8">
+        <v>3520779000000</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3143143366253523E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="C53" s="14">
+        <v>4.6038719504543461E-3</v>
+      </c>
+      <c r="D53" s="15">
+        <v>4.6038719504543461E-3</v>
+      </c>
+      <c r="E53" s="15">
+        <v>4.6038719504543461E-3</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53" s="9">
+        <v>21</v>
+      </c>
+      <c r="J53" s="7">
+        <v>-230.2</v>
+      </c>
+      <c r="K53" s="7">
+        <v>50</v>
+      </c>
+      <c r="L53" s="7">
+        <v>9957085306</v>
+      </c>
+      <c r="M53" s="7">
+        <v>3</v>
+      </c>
+      <c r="N53" s="8">
+        <v>2292121000000</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6038719504543461E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>21</v>
+      </c>
+      <c r="B54">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="C54" s="14">
+        <v>5.6887969608433314E-3</v>
+      </c>
+      <c r="D54" s="15">
+        <v>5.6887969608433314E-3</v>
+      </c>
+      <c r="E54" s="15">
+        <v>5.6887969608433314E-3</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54" s="9">
+        <v>22</v>
+      </c>
+      <c r="J54" s="7">
+        <v>-186.3</v>
+      </c>
+      <c r="K54" s="7">
+        <v>50</v>
+      </c>
+      <c r="L54" s="7">
+        <v>6033778736</v>
+      </c>
+      <c r="M54" s="7">
+        <v>3</v>
+      </c>
+      <c r="N54" s="8">
+        <v>1124093000000</v>
+      </c>
+      <c r="P54" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6887969608433314E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="C55" s="14">
+        <v>1.3283900379781735E-2</v>
+      </c>
+      <c r="D55" s="18">
+        <v>1.3283900379781735E-2</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55" s="9">
+        <v>23</v>
+      </c>
+      <c r="J55" s="7">
+        <v>-119.6</v>
+      </c>
+      <c r="K55" s="7">
+        <v>50</v>
+      </c>
+      <c r="L55" s="7">
+        <v>17242902545</v>
+      </c>
+      <c r="M55" s="7">
+        <v>2</v>
+      </c>
+      <c r="N55" s="8">
+        <v>2062251000000</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3283900379781735E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>23</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="9">
+        <v>24</v>
+      </c>
+      <c r="J56" s="7">
+        <v>0</v>
+      </c>
+      <c r="K56" s="7">
+        <v>0</v>
+      </c>
+      <c r="L56" s="7">
+        <v>173026053</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="8">
+        <v>0</v>
+      </c>
+      <c r="P56" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>24</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>25</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0</v>
+      </c>
+      <c r="L57" s="7">
+        <v>294595432</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0</v>
+      </c>
+      <c r="N57" s="8">
+        <v>0</v>
+      </c>
+      <c r="P57" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>25</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58" s="9">
+        <v>26</v>
+      </c>
+      <c r="J58" s="7">
+        <v>-100</v>
+      </c>
+      <c r="K58" s="7">
+        <v>50</v>
+      </c>
+      <c r="L58" s="7">
+        <v>35556339824</v>
+      </c>
+      <c r="M58" s="7">
+        <v>2</v>
+      </c>
+      <c r="N58" s="8">
+        <v>3555634000000</v>
+      </c>
+      <c r="P58" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>26</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59" s="9">
+        <v>27</v>
+      </c>
+      <c r="J59" s="7">
+        <v>-150</v>
+      </c>
+      <c r="K59" s="7">
+        <v>50</v>
+      </c>
+      <c r="L59" s="7">
+        <v>17529276725</v>
+      </c>
+      <c r="M59" s="7">
+        <v>3</v>
+      </c>
+      <c r="N59" s="8">
+        <v>2629392000000</v>
+      </c>
+      <c r="P59" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>27</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60" s="9">
+        <v>28</v>
+      </c>
+      <c r="J60" s="7">
+        <v>-500</v>
+      </c>
+      <c r="K60" s="7">
+        <v>50</v>
+      </c>
+      <c r="L60" s="7">
+        <v>26033456848</v>
+      </c>
+      <c r="M60" s="7">
+        <v>4</v>
+      </c>
+      <c r="N60" s="8">
+        <v>13016730000000</v>
+      </c>
+      <c r="P60" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>28</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61" s="9">
+        <v>29</v>
+      </c>
+      <c r="J61" s="7">
+        <v>-500</v>
+      </c>
+      <c r="K61" s="7">
+        <v>50</v>
+      </c>
+      <c r="L61" s="7">
+        <v>40232596619</v>
+      </c>
+      <c r="M61" s="7">
+        <v>4</v>
+      </c>
+      <c r="N61" s="8">
+        <v>20116300000000</v>
+      </c>
+      <c r="P61" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>29</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62" s="9">
+        <v>30</v>
+      </c>
+      <c r="J62" s="7">
+        <v>-500</v>
+      </c>
+      <c r="K62" s="7">
+        <v>50</v>
+      </c>
+      <c r="L62" s="7">
+        <v>27427742420</v>
+      </c>
+      <c r="M62" s="7">
+        <v>4</v>
+      </c>
+      <c r="N62" s="8">
+        <v>13713870000000</v>
+      </c>
+      <c r="P62" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/R/Scaling_biomass_logfile_output.xlsx
+++ b/R/Scaling_biomass_logfile_output.xlsx
@@ -19,7 +19,8 @@
     <sheet name="20180809a" sheetId="5" r:id="rId5"/>
     <sheet name="20180814dtb_scale" sheetId="6" r:id="rId6"/>
     <sheet name="NSH" sheetId="8" r:id="rId7"/>
-    <sheet name="desiredBiomass" sheetId="7" r:id="rId8"/>
+    <sheet name="NSH (2)" sheetId="10" r:id="rId8"/>
+    <sheet name="desiredBiomass" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5160" uniqueCount="242">
   <si>
     <t>Time:</t>
   </si>
@@ -752,6 +753,12 @@
   <si>
     <t>BoxBioPct</t>
   </si>
+  <si>
+    <t>36th SAW Fig C19, p381</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
 </sst>
 </file>
 
@@ -760,7 +767,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -791,6 +798,20 @@
       <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -950,7 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -981,6 +1002,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -18941,8 +18964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20664,6 +20687,9 @@
       <c r="M30">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="Q30" s="23" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -20701,6 +20727,9 @@
       </c>
       <c r="P31" s="1">
         <v>45000000000000</v>
+      </c>
+      <c r="Q31" s="22" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
@@ -20766,7 +20795,7 @@
         <v>1264707000000</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" ref="P33:P40" si="0">$P$31/20/5.7*B33/H33/N33</f>
+        <f>$P$31/20/5.7*B33/H33/N33</f>
         <v>0</v>
       </c>
     </row>
@@ -20814,7 +20843,7 @@
         <v>216250500000</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P33:P40" si="0">$P$31/20/5.7*B34/H34/N34</f>
         <v>0</v>
       </c>
     </row>
@@ -22169,6 +22198,3240 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="P1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L2" t="s">
+        <v>224</v>
+      </c>
+      <c r="M2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3.00752E-4</v>
+      </c>
+      <c r="R2">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="S2">
+        <v>9.0225600000000004E-4</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1.052632E-3</v>
+      </c>
+      <c r="V2">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="W2">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="X2">
+        <v>3.7593980000000002E-3</v>
+      </c>
+      <c r="Y2">
+        <v>9.0225600000000004E-4</v>
+      </c>
+      <c r="Z2">
+        <v>0.20225563799999999</v>
+      </c>
+      <c r="AA2">
+        <v>7.1578947000000004E-2</v>
+      </c>
+      <c r="AB2">
+        <v>1.2330827000000001E-2</v>
+      </c>
+      <c r="AC2">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="AD2">
+        <v>1.203008E-3</v>
+      </c>
+      <c r="AE2">
+        <v>7.5188000000000002E-4</v>
+      </c>
+      <c r="AF2">
+        <v>0.51488721599999998</v>
+      </c>
+      <c r="AG2">
+        <v>4.8571428999999999E-2</v>
+      </c>
+      <c r="AH2">
+        <v>7.6691729E-2</v>
+      </c>
+      <c r="AI2">
+        <v>2.8721805E-2</v>
+      </c>
+      <c r="AJ2">
+        <v>2.2857143E-2</v>
+      </c>
+      <c r="AK2">
+        <v>5.7142859999999998E-3</v>
+      </c>
+      <c r="AL2">
+        <v>5.7142859999999998E-3</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I3">
+        <v>2.95021E-2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K3" t="s">
+        <v>224</v>
+      </c>
+      <c r="L3" t="s">
+        <v>224</v>
+      </c>
+      <c r="M3">
+        <v>2.95021E-2</v>
+      </c>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4">
+        <v>4.56455968E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L4" t="s">
+        <v>224</v>
+      </c>
+      <c r="M4">
+        <v>4.56455968E-2</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I5">
+        <v>2.21814992E-2</v>
+      </c>
+      <c r="J5">
+        <v>2.21814992E-2</v>
+      </c>
+      <c r="K5">
+        <v>2.21814992E-2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M5">
+        <v>2.21814992E-2</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3.00752E-4</v>
+      </c>
+      <c r="R5">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="S5">
+        <v>9.0225600000000004E-4</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1.052632E-3</v>
+      </c>
+      <c r="V5">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="W5">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="X5">
+        <v>3.7593980000000002E-3</v>
+      </c>
+      <c r="Y5">
+        <v>9.0225600000000004E-4</v>
+      </c>
+      <c r="Z5">
+        <v>0.20225563799999999</v>
+      </c>
+      <c r="AA5">
+        <v>7.1578947000000004E-2</v>
+      </c>
+      <c r="AB5">
+        <v>1.2330827000000001E-2</v>
+      </c>
+      <c r="AC5">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="AD5">
+        <v>1.203008E-3</v>
+      </c>
+      <c r="AE5">
+        <v>7.5188000000000002E-4</v>
+      </c>
+      <c r="AF5">
+        <v>0.51488721599999998</v>
+      </c>
+      <c r="AG5">
+        <v>4.8571428999999999E-2</v>
+      </c>
+      <c r="AH5">
+        <v>7.6691729E-2</v>
+      </c>
+      <c r="AI5">
+        <v>2.8721805E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>2.2857143E-2</v>
+      </c>
+      <c r="AK5">
+        <v>5.7142859999999998E-3</v>
+      </c>
+      <c r="AL5">
+        <v>5.7142859999999998E-3</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I6">
+        <v>1.8767691199999999E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>224</v>
+      </c>
+      <c r="K6" t="s">
+        <v>224</v>
+      </c>
+      <c r="L6" t="s">
+        <v>224</v>
+      </c>
+      <c r="M6">
+        <v>1.8767691199999999E-2</v>
+      </c>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7">
+        <v>1.3906516000000001E-2</v>
+      </c>
+      <c r="J7">
+        <v>1.3906516000000001E-2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M7">
+        <v>1.3906516000000001E-2</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" t="s">
+        <v>225</v>
+      </c>
+      <c r="I8">
+        <v>1.4307304E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.4307304E-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>224</v>
+      </c>
+      <c r="L8" t="s">
+        <v>224</v>
+      </c>
+      <c r="M8">
+        <v>1.4307304E-2</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>3.00752E-4</v>
+      </c>
+      <c r="R8">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="S8">
+        <v>9.0225600000000004E-4</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>1.052632E-3</v>
+      </c>
+      <c r="V8">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="W8">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="X8">
+        <v>3.7593980000000002E-3</v>
+      </c>
+      <c r="Y8">
+        <v>9.0225600000000004E-4</v>
+      </c>
+      <c r="Z8">
+        <v>0.20225563799999999</v>
+      </c>
+      <c r="AA8">
+        <v>7.1578947000000004E-2</v>
+      </c>
+      <c r="AB8">
+        <v>1.2330827000000001E-2</v>
+      </c>
+      <c r="AC8">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="AD8">
+        <v>1.203008E-3</v>
+      </c>
+      <c r="AE8">
+        <v>7.5188000000000002E-4</v>
+      </c>
+      <c r="AF8">
+        <v>0.51488721599999998</v>
+      </c>
+      <c r="AG8">
+        <v>4.8571428999999999E-2</v>
+      </c>
+      <c r="AH8">
+        <v>7.6691729E-2</v>
+      </c>
+      <c r="AI8">
+        <v>2.8721805E-2</v>
+      </c>
+      <c r="AJ8">
+        <v>2.2857143E-2</v>
+      </c>
+      <c r="AK8">
+        <v>5.7142859999999998E-3</v>
+      </c>
+      <c r="AL8">
+        <v>5.7142859999999998E-3</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G9" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9">
+        <v>4.2745036E-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>224</v>
+      </c>
+      <c r="K9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L9" t="s">
+        <v>224</v>
+      </c>
+      <c r="M9">
+        <v>4.2745036E-2</v>
+      </c>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>4.7021820000000001E-3</v>
+      </c>
+      <c r="D10">
+        <v>4.7021820000000001E-3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I10">
+        <v>1.5953438399999999E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.5953438399999999E-2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>224</v>
+      </c>
+      <c r="L10" t="s">
+        <v>224</v>
+      </c>
+      <c r="M10">
+        <v>1.5953438399999999E-2</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11">
+        <v>1.5901989599999999E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.5901989599999999E-2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>224</v>
+      </c>
+      <c r="L11" t="s">
+        <v>224</v>
+      </c>
+      <c r="M11">
+        <v>1.5901989599999999E-2</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>3.00752E-4</v>
+      </c>
+      <c r="R11">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="S11">
+        <v>9.0225600000000004E-4</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1.052632E-3</v>
+      </c>
+      <c r="V11">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="W11">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="X11">
+        <v>3.7593980000000002E-3</v>
+      </c>
+      <c r="Y11">
+        <v>9.0225600000000004E-4</v>
+      </c>
+      <c r="Z11">
+        <v>0.20225563799999999</v>
+      </c>
+      <c r="AA11">
+        <v>7.1578947000000004E-2</v>
+      </c>
+      <c r="AB11">
+        <v>1.2330827000000001E-2</v>
+      </c>
+      <c r="AC11">
+        <v>4.5112800000000002E-4</v>
+      </c>
+      <c r="AD11">
+        <v>1.203008E-3</v>
+      </c>
+      <c r="AE11">
+        <v>7.5188000000000002E-4</v>
+      </c>
+      <c r="AF11">
+        <v>0.51488721599999998</v>
+      </c>
+      <c r="AG11">
+        <v>4.8571428999999999E-2</v>
+      </c>
+      <c r="AH11">
+        <v>7.6691729E-2</v>
+      </c>
+      <c r="AI11">
+        <v>2.8721805E-2</v>
+      </c>
+      <c r="AJ11">
+        <v>2.2857143E-2</v>
+      </c>
+      <c r="AK11">
+        <v>5.7142859999999998E-3</v>
+      </c>
+      <c r="AL11">
+        <v>5.7142859999999998E-3</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.6200000000000001E-5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.6200000000000001E-5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12">
+        <v>6.3926375999999998E-3</v>
+      </c>
+      <c r="J12">
+        <v>6.3926375999999998E-3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>224</v>
+      </c>
+      <c r="L12" t="s">
+        <v>224</v>
+      </c>
+      <c r="M12">
+        <v>6.3926375999999998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.52E-5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.52E-5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.52E-5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" t="s">
+        <v>225</v>
+      </c>
+      <c r="I13">
+        <v>1.3157544000000001E-3</v>
+      </c>
+      <c r="J13">
+        <v>1.3157544000000001E-3</v>
+      </c>
+      <c r="K13">
+        <v>1.3157544000000001E-3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>224</v>
+      </c>
+      <c r="M13">
+        <v>1.3157544000000001E-3</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="P13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.2931200000000001E-5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.2931200000000001E-5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14">
+        <v>9.2739264000000002E-3</v>
+      </c>
+      <c r="J14">
+        <v>9.2739264000000002E-3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>224</v>
+      </c>
+      <c r="L14" t="s">
+        <v>224</v>
+      </c>
+      <c r="M14">
+        <v>9.2739264000000002E-3</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="AA14">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="AB14">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="AC14">
+        <v>0.114</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="AG14">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="AH14">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="AI14">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="AJ14">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="AK14">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="AL14">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>5.7767560000000001E-3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I15">
+        <v>1.3226912E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>224</v>
+      </c>
+      <c r="K15" t="s">
+        <v>224</v>
+      </c>
+      <c r="L15" t="s">
+        <v>224</v>
+      </c>
+      <c r="M15">
+        <v>1.3226912E-2</v>
+      </c>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G16" t="s">
+        <v>225</v>
+      </c>
+      <c r="I16">
+        <v>4.6199911999999996E-3</v>
+      </c>
+      <c r="J16">
+        <v>4.6199911999999996E-3</v>
+      </c>
+      <c r="K16">
+        <v>4.6199911999999996E-3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>224</v>
+      </c>
+      <c r="M16">
+        <v>4.6199911999999996E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" t="s">
+        <v>225</v>
+      </c>
+      <c r="I17">
+        <v>4.4117840000000002E-3</v>
+      </c>
+      <c r="J17">
+        <v>4.4117840000000002E-3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>224</v>
+      </c>
+      <c r="L17" t="s">
+        <v>224</v>
+      </c>
+      <c r="M17">
+        <v>4.4117840000000002E-3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>233</v>
+      </c>
+      <c r="P17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.7378900000000001E-4</v>
+      </c>
+      <c r="D18">
+        <v>1.7378900000000001E-4</v>
+      </c>
+      <c r="E18">
+        <v>1.7378900000000001E-4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G18" t="s">
+        <v>225</v>
+      </c>
+      <c r="I18">
+        <v>8.5796560000000002E-4</v>
+      </c>
+      <c r="J18">
+        <v>8.5796560000000002E-4</v>
+      </c>
+      <c r="K18">
+        <v>8.5796560000000002E-4</v>
+      </c>
+      <c r="L18" t="s">
+        <v>224</v>
+      </c>
+      <c r="M18">
+        <v>8.5796560000000002E-4</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0.5323</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0.23860000000000001</v>
+      </c>
+      <c r="AH18">
+        <v>0.2291</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.3667600000000001E-5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5.3667600000000001E-5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" t="s">
+        <v>225</v>
+      </c>
+      <c r="I19">
+        <v>1.1743445599999999E-2</v>
+      </c>
+      <c r="J19">
+        <v>1.1743445599999999E-2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s">
+        <v>224</v>
+      </c>
+      <c r="M19">
+        <v>1.1743445599999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.3667600000000001E-5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.3667600000000001E-5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" t="s">
+        <v>225</v>
+      </c>
+      <c r="I20">
+        <v>6.2251436E-2</v>
+      </c>
+      <c r="J20">
+        <v>6.2251436E-2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>224</v>
+      </c>
+      <c r="L20" t="s">
+        <v>224</v>
+      </c>
+      <c r="M20">
+        <v>6.2251436E-2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>234</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5.3667600000000001E-5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.3667600000000001E-5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5.3667600000000001E-5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>224</v>
+      </c>
+      <c r="G21" t="s">
+        <v>225</v>
+      </c>
+      <c r="I21">
+        <v>4.7369600000000001E-4</v>
+      </c>
+      <c r="J21">
+        <v>4.7369600000000001E-4</v>
+      </c>
+      <c r="K21">
+        <v>4.7369600000000001E-4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M21">
+        <v>4.7369600000000001E-4</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0.3553</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0.25169999999999998</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8.3600000000000001E-11</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8.3600000000000001E-11</v>
+      </c>
+      <c r="E22" s="1">
+        <v>8.3600000000000001E-11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" t="s">
+        <v>225</v>
+      </c>
+      <c r="I22">
+        <v>4.475816E-4</v>
+      </c>
+      <c r="J22">
+        <v>4.475816E-4</v>
+      </c>
+      <c r="K22">
+        <v>4.475816E-4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22">
+        <v>4.475816E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.3699999999999999E-11</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5.3699999999999999E-11</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.5199999999999999E-10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" t="s">
+        <v>225</v>
+      </c>
+      <c r="I23">
+        <v>9.55096E-4</v>
+      </c>
+      <c r="J23">
+        <v>9.55096E-4</v>
+      </c>
+      <c r="K23">
+        <v>9.55096E-4</v>
+      </c>
+      <c r="L23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23">
+        <v>9.55096E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.5199999999999999E-10</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.5199999999999999E-10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" t="s">
+        <v>225</v>
+      </c>
+      <c r="I24">
+        <v>7.4122160000000001E-4</v>
+      </c>
+      <c r="J24">
+        <v>7.4122160000000001E-4</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24">
+        <v>7.4122160000000001E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" t="s">
+        <v>225</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" t="s">
+        <v>225</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" t="s">
+        <v>224</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>225</v>
+      </c>
+      <c r="I27">
+        <v>7.4122160000000001E-4</v>
+      </c>
+      <c r="J27">
+        <v>7.4122160000000001E-4</v>
+      </c>
+      <c r="K27" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27">
+        <v>7.4122160000000001E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" t="s">
+        <v>224</v>
+      </c>
+      <c r="E28" t="s">
+        <v>224</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
+        <v>225</v>
+      </c>
+      <c r="I28">
+        <v>9.55096E-4</v>
+      </c>
+      <c r="J28">
+        <v>9.55096E-4</v>
+      </c>
+      <c r="K28">
+        <v>9.55096E-4</v>
+      </c>
+      <c r="L28" t="s">
+        <v>224</v>
+      </c>
+      <c r="M28">
+        <v>9.55096E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" t="s">
+        <v>224</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>225</v>
+      </c>
+      <c r="I29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" t="s">
+        <v>224</v>
+      </c>
+      <c r="G30" t="s">
+        <v>225</v>
+      </c>
+      <c r="I30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" t="s">
+        <v>224</v>
+      </c>
+      <c r="E31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="s">
+        <v>226</v>
+      </c>
+      <c r="I31">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J31">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K31">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L31">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M31">
+        <v>1.6E-2</v>
+      </c>
+      <c r="P31" s="1">
+        <v>45000000000000</v>
+      </c>
+      <c r="Q31" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>239</v>
+      </c>
+      <c r="H32" t="s">
+        <v>236</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="7">
+        <v>50</v>
+      </c>
+      <c r="L33" s="7">
+        <v>12647072876</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2</v>
+      </c>
+      <c r="N33" s="8">
+        <v>1264707000000</v>
+      </c>
+      <c r="P33" s="1">
+        <f>$P$31/20/5.7*B33/H33/N33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" s="9">
+        <v>2</v>
+      </c>
+      <c r="J34" s="7">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="K34" s="7">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L34" s="7">
+        <v>12286957937</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="8">
+        <v>216250500000</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" ref="P34:P41" si="0">$P$31/20/5.7*B34/H34/N34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="9">
+        <v>3</v>
+      </c>
+      <c r="J35" s="7">
+        <v>-36.5</v>
+      </c>
+      <c r="K35" s="7">
+        <v>36.5</v>
+      </c>
+      <c r="L35" s="7">
+        <v>29971254486</v>
+      </c>
+      <c r="M35" s="7">
+        <v>1</v>
+      </c>
+      <c r="N35" s="8">
+        <v>1093951000000</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36" s="9">
+        <v>4</v>
+      </c>
+      <c r="J36" s="7">
+        <v>-128.5</v>
+      </c>
+      <c r="K36" s="7">
+        <v>50</v>
+      </c>
+      <c r="L36" s="7">
+        <v>13938887160</v>
+      </c>
+      <c r="M36" s="7">
+        <v>3</v>
+      </c>
+      <c r="N36" s="8">
+        <v>1791147000000</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" s="9">
+        <v>5</v>
+      </c>
+      <c r="J37" s="7">
+        <v>-20.5</v>
+      </c>
+      <c r="K37" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="L37" s="7">
+        <v>3686010853</v>
+      </c>
+      <c r="M37" s="7">
+        <v>1</v>
+      </c>
+      <c r="N37" s="8">
+        <v>75563220000</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38" s="9">
+        <v>6</v>
+      </c>
+      <c r="J38" s="7">
+        <v>-106</v>
+      </c>
+      <c r="K38" s="7">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7">
+        <v>11079367895</v>
+      </c>
+      <c r="M38" s="7">
+        <v>2</v>
+      </c>
+      <c r="N38" s="8">
+        <v>1174413000000</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39" s="9">
+        <v>7</v>
+      </c>
+      <c r="J39" s="7">
+        <v>-109.9</v>
+      </c>
+      <c r="K39" s="7">
+        <v>50</v>
+      </c>
+      <c r="L39" s="7">
+        <v>19434502995</v>
+      </c>
+      <c r="M39" s="7">
+        <v>2</v>
+      </c>
+      <c r="N39" s="8">
+        <v>2135852000000</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" s="9">
+        <v>8</v>
+      </c>
+      <c r="J40" s="7">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="K40" s="7">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="L40" s="7">
+        <v>10361542520</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1</v>
+      </c>
+      <c r="N40" s="8">
+        <v>350220100000</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C41" s="17">
+        <v>3.0573402278289169E-2</v>
+      </c>
+      <c r="D41" s="15">
+        <v>3.0573402278289169E-2</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41" s="9">
+        <v>9</v>
+      </c>
+      <c r="J41" s="7">
+        <v>-52</v>
+      </c>
+      <c r="K41" s="7">
+        <v>50</v>
+      </c>
+      <c r="L41" s="7">
+        <v>6455559422</v>
+      </c>
+      <c r="M41" s="7">
+        <v>2</v>
+      </c>
+      <c r="N41" s="8">
+        <v>335689100000</v>
+      </c>
+      <c r="P41" s="1">
+        <f>$P$31/20/5.7*B41/H41/N41</f>
+        <v>3.0573402278289169E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42" s="9">
+        <v>10</v>
+      </c>
+      <c r="J42" s="7">
+        <v>-85.3</v>
+      </c>
+      <c r="K42" s="7">
+        <v>50</v>
+      </c>
+      <c r="L42" s="7">
+        <v>17316802511</v>
+      </c>
+      <c r="M42" s="7">
+        <v>2</v>
+      </c>
+      <c r="N42" s="8">
+        <v>1477123000000</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" ref="P42:P62" si="1">$P$31/20/5.7*B42/H42/N42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="C43" s="14">
+        <v>2.1108827137398572E-2</v>
+      </c>
+      <c r="D43" s="15">
+        <v>2.1108827137398572E-2</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43" s="9">
+        <v>11</v>
+      </c>
+      <c r="J43" s="7">
+        <v>-75.3</v>
+      </c>
+      <c r="K43" s="7">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7">
+        <v>11225017827</v>
+      </c>
+      <c r="M43" s="7">
+        <v>2</v>
+      </c>
+      <c r="N43" s="8">
+        <v>845243800000</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1108827137398572E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="C44" s="14">
+        <v>5.7063444387811567E-3</v>
+      </c>
+      <c r="D44" s="15">
+        <v>5.7063444387811567E-3</v>
+      </c>
+      <c r="E44" s="15">
+        <v>5.7063444387811567E-3</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44" s="9">
+        <v>12</v>
+      </c>
+      <c r="J44" s="7">
+        <v>-185.6</v>
+      </c>
+      <c r="K44" s="7">
+        <v>50</v>
+      </c>
+      <c r="L44" s="7">
+        <v>15989283041</v>
+      </c>
+      <c r="M44" s="7">
+        <v>3</v>
+      </c>
+      <c r="N44" s="8">
+        <v>2967611000000</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7063444387811567E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="C45" s="14">
+        <v>1.4481667457081206E-2</v>
+      </c>
+      <c r="D45" s="15">
+        <v>1.4481667457081206E-2</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45" s="9">
+        <v>13</v>
+      </c>
+      <c r="J45" s="7">
+        <v>-109.8</v>
+      </c>
+      <c r="K45" s="7">
+        <v>50</v>
+      </c>
+      <c r="L45" s="7">
+        <v>4282287423</v>
+      </c>
+      <c r="M45" s="7">
+        <v>2</v>
+      </c>
+      <c r="N45" s="8">
+        <v>470195200000</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4481667457081206E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>0.114</v>
+      </c>
+      <c r="C46" s="14">
+        <v>6.4981639798683988E-2</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" s="9">
+        <v>14</v>
+      </c>
+      <c r="J46" s="7">
+        <v>-48.9</v>
+      </c>
+      <c r="K46" s="7">
+        <v>48.9</v>
+      </c>
+      <c r="L46" s="7">
+        <v>14161620805</v>
+      </c>
+      <c r="M46" s="7">
+        <v>1</v>
+      </c>
+      <c r="N46" s="8">
+        <v>692503300000</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4981639798683988E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47" s="9">
+        <v>15</v>
+      </c>
+      <c r="J47" s="7">
+        <v>-138.80000000000001</v>
+      </c>
+      <c r="K47" s="7">
+        <v>50</v>
+      </c>
+      <c r="L47" s="7">
+        <v>12608709589</v>
+      </c>
+      <c r="M47" s="7">
+        <v>3</v>
+      </c>
+      <c r="N47" s="8">
+        <v>1750089000000</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" s="9">
+        <v>16</v>
+      </c>
+      <c r="J48" s="7">
+        <v>-101.8</v>
+      </c>
+      <c r="K48" s="7">
+        <v>50</v>
+      </c>
+      <c r="L48" s="7">
+        <v>9175347755</v>
+      </c>
+      <c r="M48" s="7">
+        <v>2</v>
+      </c>
+      <c r="N48" s="8">
+        <v>934050400000</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="C49" s="14">
+        <v>6.7926514832037542E-3</v>
+      </c>
+      <c r="D49" s="15">
+        <v>6.7926514832037542E-3</v>
+      </c>
+      <c r="E49" s="15">
+        <v>6.7926514832037542E-3</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49" s="9">
+        <v>17</v>
+      </c>
+      <c r="J49" s="7">
+        <v>-156</v>
+      </c>
+      <c r="K49" s="7">
+        <v>50</v>
+      </c>
+      <c r="L49" s="7">
+        <v>11324453301</v>
+      </c>
+      <c r="M49" s="7">
+        <v>3</v>
+      </c>
+      <c r="N49" s="8">
+        <v>1766615000000</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="1"/>
+        <v>6.7926514832037542E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>17</v>
+      </c>
+      <c r="B50">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="C50" s="14">
+        <v>1.9400287828099102E-2</v>
+      </c>
+      <c r="D50" s="18">
+        <v>1.9400287828099102E-2</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50" s="9">
+        <v>18</v>
+      </c>
+      <c r="J50" s="7">
+        <v>-81.900000000000006</v>
+      </c>
+      <c r="K50" s="7">
+        <v>50</v>
+      </c>
+      <c r="L50" s="7">
+        <v>5030841128</v>
+      </c>
+      <c r="M50" s="7">
+        <v>2</v>
+      </c>
+      <c r="N50" s="8">
+        <v>412025900000</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9400287828099102E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="C51" s="14">
+        <v>1.8392655758024037E-2</v>
+      </c>
+      <c r="D51" s="18">
+        <v>1.8392655758024037E-2</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51" s="9">
+        <v>19</v>
+      </c>
+      <c r="J51" s="7">
+        <v>-86.4</v>
+      </c>
+      <c r="K51" s="7">
+        <v>50</v>
+      </c>
+      <c r="L51" s="7">
+        <v>4831356901</v>
+      </c>
+      <c r="M51" s="7">
+        <v>2</v>
+      </c>
+      <c r="N51" s="8">
+        <v>417429200000</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8392655758024037E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>19</v>
+      </c>
+      <c r="B52">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="C52" s="14">
+        <v>5.3143143366253523E-3</v>
+      </c>
+      <c r="D52" s="15">
+        <v>5.3143143366253523E-3</v>
+      </c>
+      <c r="E52" s="15">
+        <v>5.3143143366253523E-3</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52" s="9">
+        <v>20</v>
+      </c>
+      <c r="J52" s="7">
+        <v>-199.1</v>
+      </c>
+      <c r="K52" s="7">
+        <v>50</v>
+      </c>
+      <c r="L52" s="7">
+        <v>17683470543</v>
+      </c>
+      <c r="M52" s="7">
+        <v>3</v>
+      </c>
+      <c r="N52" s="8">
+        <v>3520779000000</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3143143366253523E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="C53" s="14">
+        <v>4.6038719504543461E-3</v>
+      </c>
+      <c r="D53" s="15">
+        <v>4.6038719504543461E-3</v>
+      </c>
+      <c r="E53" s="15">
+        <v>4.6038719504543461E-3</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53" s="9">
+        <v>21</v>
+      </c>
+      <c r="J53" s="7">
+        <v>-230.2</v>
+      </c>
+      <c r="K53" s="7">
+        <v>50</v>
+      </c>
+      <c r="L53" s="7">
+        <v>9957085306</v>
+      </c>
+      <c r="M53" s="7">
+        <v>3</v>
+      </c>
+      <c r="N53" s="8">
+        <v>2292121000000</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6038719504543461E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>21</v>
+      </c>
+      <c r="B54">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="C54" s="14">
+        <v>5.6887969608433314E-3</v>
+      </c>
+      <c r="D54" s="15">
+        <v>5.6887969608433314E-3</v>
+      </c>
+      <c r="E54" s="15">
+        <v>5.6887969608433314E-3</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54" s="9">
+        <v>22</v>
+      </c>
+      <c r="J54" s="7">
+        <v>-186.3</v>
+      </c>
+      <c r="K54" s="7">
+        <v>50</v>
+      </c>
+      <c r="L54" s="7">
+        <v>6033778736</v>
+      </c>
+      <c r="M54" s="7">
+        <v>3</v>
+      </c>
+      <c r="N54" s="8">
+        <v>1124093000000</v>
+      </c>
+      <c r="P54" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6887969608433314E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="C55" s="14">
+        <v>1.3283900379781735E-2</v>
+      </c>
+      <c r="D55" s="18">
+        <v>1.3283900379781735E-2</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55" s="9">
+        <v>23</v>
+      </c>
+      <c r="J55" s="7">
+        <v>-119.6</v>
+      </c>
+      <c r="K55" s="7">
+        <v>50</v>
+      </c>
+      <c r="L55" s="7">
+        <v>17242902545</v>
+      </c>
+      <c r="M55" s="7">
+        <v>2</v>
+      </c>
+      <c r="N55" s="8">
+        <v>2062251000000</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3283900379781735E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>23</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="9">
+        <v>24</v>
+      </c>
+      <c r="J56" s="7">
+        <v>0</v>
+      </c>
+      <c r="K56" s="7">
+        <v>0</v>
+      </c>
+      <c r="L56" s="7">
+        <v>173026053</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="8">
+        <v>0</v>
+      </c>
+      <c r="P56" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>24</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>25</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0</v>
+      </c>
+      <c r="L57" s="7">
+        <v>294595432</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0</v>
+      </c>
+      <c r="N57" s="8">
+        <v>0</v>
+      </c>
+      <c r="P57" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>25</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58" s="9">
+        <v>26</v>
+      </c>
+      <c r="J58" s="7">
+        <v>-100</v>
+      </c>
+      <c r="K58" s="7">
+        <v>50</v>
+      </c>
+      <c r="L58" s="7">
+        <v>35556339824</v>
+      </c>
+      <c r="M58" s="7">
+        <v>2</v>
+      </c>
+      <c r="N58" s="8">
+        <v>3555634000000</v>
+      </c>
+      <c r="P58" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>26</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59" s="9">
+        <v>27</v>
+      </c>
+      <c r="J59" s="7">
+        <v>-150</v>
+      </c>
+      <c r="K59" s="7">
+        <v>50</v>
+      </c>
+      <c r="L59" s="7">
+        <v>17529276725</v>
+      </c>
+      <c r="M59" s="7">
+        <v>3</v>
+      </c>
+      <c r="N59" s="8">
+        <v>2629392000000</v>
+      </c>
+      <c r="P59" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>27</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60" s="9">
+        <v>28</v>
+      </c>
+      <c r="J60" s="7">
+        <v>-500</v>
+      </c>
+      <c r="K60" s="7">
+        <v>50</v>
+      </c>
+      <c r="L60" s="7">
+        <v>26033456848</v>
+      </c>
+      <c r="M60" s="7">
+        <v>4</v>
+      </c>
+      <c r="N60" s="8">
+        <v>13016730000000</v>
+      </c>
+      <c r="P60" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>28</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61" s="9">
+        <v>29</v>
+      </c>
+      <c r="J61" s="7">
+        <v>-500</v>
+      </c>
+      <c r="K61" s="7">
+        <v>50</v>
+      </c>
+      <c r="L61" s="7">
+        <v>40232596619</v>
+      </c>
+      <c r="M61" s="7">
+        <v>4</v>
+      </c>
+      <c r="N61" s="8">
+        <v>20116300000000</v>
+      </c>
+      <c r="P61" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>29</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62" s="9">
+        <v>30</v>
+      </c>
+      <c r="J62" s="7">
+        <v>-500</v>
+      </c>
+      <c r="K62" s="7">
+        <v>50</v>
+      </c>
+      <c r="L62" s="7">
+        <v>27427742420</v>
+      </c>
+      <c r="M62" s="7">
+        <v>4</v>
+      </c>
+      <c r="N62" s="8">
+        <v>13713870000000</v>
+      </c>
+      <c r="P62" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E91"/>
   <sheetViews>

--- a/R/Scaling_biomass_logfile_output.xlsx
+++ b/R/Scaling_biomass_logfile_output.xlsx
@@ -1402,7 +1402,7 @@
   <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H76" activeCellId="1" sqref="AI111:AI120 H76"/>
+      <selection pane="topLeft" activeCell="H76" activeCellId="0" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4010,7 +4010,7 @@
   <dimension ref="A1:AG116"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N64" activeCellId="1" sqref="AI111:AI120 N64"/>
+      <selection pane="topLeft" activeCell="N64" activeCellId="0" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8802,7 +8802,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C78" activeCellId="1" sqref="AI111:AI120 C78"/>
+      <selection pane="topLeft" activeCell="C78" activeCellId="0" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10365,7 +10365,7 @@
   <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AI111:AI120 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12973,7 +12973,7 @@
   <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AI111:AI120 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15581,7 +15581,7 @@
   <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L31" activeCellId="1" sqref="AI111:AI120 L31"/>
+      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18189,7 +18189,7 @@
   <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H76" activeCellId="1" sqref="AI111:AI120 H76"/>
+      <selection pane="topLeft" activeCell="H76" activeCellId="0" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20797,7 +20797,7 @@
   <dimension ref="A1:DA93"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N87" activeCellId="1" sqref="AI111:AI120 N87"/>
+      <selection pane="topLeft" activeCell="N87" activeCellId="0" sqref="N87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25485,7 +25485,7 @@
   <dimension ref="A1:AS93"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P64" activeCellId="1" sqref="AI111:AI120 P64"/>
+      <selection pane="topLeft" activeCell="P64" activeCellId="0" sqref="P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29631,7 +29631,7 @@
   <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="AI111:AI120 E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32701,10 +32701,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI122"/>
+  <dimension ref="A1:AJ124"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI111" activeCellId="0" sqref="AI111:AI120"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE124" activeCellId="0" sqref="AE124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36912,16 +36912,19 @@
         <v>0.0077464794</v>
       </c>
       <c r="AE111" s="0" t="n">
-        <v>0.0482734857</v>
+        <v>0.0311133611999999</v>
       </c>
       <c r="AG111" s="0" t="n">
         <f aca="false">SUM(B111:AE111)</f>
-        <v>1.0171601245</v>
+        <v>1</v>
       </c>
       <c r="AI111" s="0" t="n">
         <f aca="false">AE111-AG111+1</f>
         <v>0.0311133612000001</v>
       </c>
+      <c r="AJ111" s="0" t="n">
+        <v>0.0311133611999999</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG112" s="0" t="n">
@@ -37038,11 +37041,11 @@
         <v>0.0077464794</v>
       </c>
       <c r="AE114" s="0" t="n">
-        <v>0.0482734857</v>
+        <v>0.0311133611999999</v>
       </c>
       <c r="AG114" s="0" t="n">
         <f aca="false">SUM(B114:AE114)</f>
-        <v>1.0171601245</v>
+        <v>1</v>
       </c>
       <c r="AI114" s="0" t="n">
         <f aca="false">AE114-AG114+1</f>
@@ -37164,16 +37167,19 @@
         <v>0.038657821</v>
       </c>
       <c r="AE117" s="0" t="n">
-        <v>0.0428777881</v>
+        <v>0.0120835238999999</v>
       </c>
       <c r="AG117" s="0" t="n">
         <f aca="false">SUM(B117:AE117)</f>
-        <v>1.0307942642</v>
+        <v>1</v>
       </c>
       <c r="AI117" s="0" t="n">
         <f aca="false">AE117-AG117+1</f>
         <v>0.0120835238999999</v>
       </c>
+      <c r="AJ117" s="0" t="n">
+        <v>0.0120835238999999</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG118" s="0" t="n">
@@ -37290,11 +37296,11 @@
         <v>0.038657821</v>
       </c>
       <c r="AE120" s="0" t="n">
-        <v>0.0428777881</v>
+        <v>0.0120835238999999</v>
       </c>
       <c r="AG120" s="0" t="n">
         <f aca="false">SUM(B120:AE120)</f>
-        <v>1.0307942642</v>
+        <v>1</v>
       </c>
       <c r="AI120" s="0" t="n">
         <f aca="false">AE120-AG120+1</f>
@@ -37304,7 +37310,103 @@
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="0" t="str">
         <f aca="false">"  "&amp;B120&amp;", "&amp;C120&amp;", "&amp;D120&amp;", "&amp;E120&amp;", "&amp;F120&amp;", "&amp;G120&amp;", "&amp;H120&amp;", "&amp;I120&amp;", "&amp;J120&amp;", "&amp;K120&amp;", "&amp;L120&amp;", "&amp;M120&amp;", "&amp;N120&amp;", "&amp;O120&amp;", "&amp;P120&amp;", "&amp;Q120&amp;", "&amp;R120&amp;", "&amp;S120&amp;", "&amp;T120&amp;", "&amp;U120&amp;", "&amp;V120&amp;", "&amp;W120&amp;", "&amp;X120&amp;", "&amp;Y120&amp;", "&amp;Z120&amp;", "&amp;AA120&amp;", "&amp;AB120&amp;", "&amp;AC120&amp;", "&amp;AD120&amp;", "&amp;AE120&amp;", "&amp;S120&amp;" ;"</f>
-        <v>  0.0373255751, 0.0419043562, 0.0368473015, 0.0228798557, 0.0307420495, 0.0428273817, 0.0366235091, 0.0295364766, 0.0237373898, 0.0336811514, 0.0352079621, 0.0210095621, 0.043341989, 0.0213170406, 0.0211525724, 0.0237544351, 0.0438039434, 0.0307942645, 0.0307942645, 0.0245440207, 0.0226432032, 0.0340607095, 0.0402417821, 0.0440278901, 0.0431754419, 0.044547291, 0.0450825727, 0.0436546636, 0.038657821, 0.0428777881, 0.0307942645 ;</v>
+        <v>  0.0373255751, 0.0419043562, 0.0368473015, 0.0228798557, 0.0307420495, 0.0428273817, 0.0366235091, 0.0295364766, 0.0237373898, 0.0336811514, 0.0352079621, 0.0210095621, 0.043341989, 0.0213170406, 0.0211525724, 0.0237544351, 0.0438039434, 0.0307942645, 0.0307942645, 0.0245440207, 0.0226432032, 0.0340607095, 0.0402417821, 0.0440278901, 0.0431754419, 0.044547291, 0.0450825727, 0.0436546636, 0.038657821, 0.0120835238999999, 0.0307942645 ;</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="I124" s="0" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="J124" s="0" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="K124" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L124" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M124" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N124" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O124" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P124" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q124" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="R124" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="S124" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="T124" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="U124" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="V124" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="W124" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="X124" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="Y124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG124" s="0" t="n">
+        <f aca="false">SUM(B124:AE124)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/R/Scaling_biomass_logfile_output.xlsx
+++ b/R/Scaling_biomass_logfile_output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="820" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="820" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="20180619b" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6379" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6477" uniqueCount="355">
   <si>
     <t>Time:</t>
   </si>
@@ -484,45 +484,6 @@
     <t xml:space="preserve">  0,   _,  _,  _,   _,</t>
   </si>
   <si>
-    <t xml:space="preserve">  0.0305734022782892,   _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.0211088271373986,   _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00855951665817174,   _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.0144816674570812,   _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.032490819899342,   _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.0101889772248056,   _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.0194002878280991,   _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.018392655758024,   _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00797147150493803,   _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00690580792568152,   _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.008533195441265,   _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.0132839003797817,   _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0,   _,  _,  _,   _ ;</t>
-  </si>
-  <si>
     <t>orig</t>
   </si>
   <si>
@@ -650,75 +611,6 @@
   </si>
   <si>
     <t>double trawl suvey non_Q corrected timeseries mean (no reliable published values)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.000430393365812319,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5.82500070973157E-05,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.000144499844223561,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00333949526261375,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.000114153841966718,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00120100192820242,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00632947239780047,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.000604089359925022,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.000048799855510843,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.000126325363054245,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9.64112739641647E-05,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00165764075916748,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.000478783981045048,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00145282259143649,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.000972333439276545,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.5386134235226E-06,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00232913606603539,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00229898719071567,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.0015162616439909,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00286400592999136,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00676834468203565,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00358453695180929,  _,  _,  _,   _,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0,  _,  _,  _,  _  ;</t>
   </si>
   <si>
     <t>FISQ_S1</t>
@@ -1047,6 +939,168 @@
   <si>
     <t>previos biomass</t>
   </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000430393365812319, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5.82500070973159E-05, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000144499844223561, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00333949526261375, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000114153841966718, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00120100192820242, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00632947239780047, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000604089359925022, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000048799855510843, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000126325363054245, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9.64112739641647E-05, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00165764075916749, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000478783981045048, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00145282259143649, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000972333439276544, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.53861342352259E-06, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00232913606603539, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00229898719071568, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0015162616439909, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00286400592999136, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00676834468203566, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00358453695180929, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0, _, _, _, _ ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0305734022782892, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0211088271373986, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00855951665817174, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0144816674570812, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.032490819899342, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0101889772248056, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0194002878280991, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.018392655758024, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00797147150493803, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00690580792568152, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.008533195441265, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0132839003797817, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.127045644798631, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0611616925592116, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.109180101112684, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0211079694146868, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0203480982370452, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0661614014489144, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0430379432071301, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0262156125187451, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0297018010163396, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0204002619830187, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0457151536127584, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0219755976652584, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0273041087951024, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0259104764920236, _, _, _, _,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0187008222925746, _, _, _, _,</t>
+  </si>
+  <si>
+    <t>based on shinyrAtlantis distribtion changer - depth limit 120m remove boundary boxes</t>
+  </si>
+  <si>
+    <t>double NSH biomas</t>
+  </si>
 </sst>
 </file>
 
@@ -1055,7 +1109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1105,6 +1159,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1235,7 +1295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1265,6 +1325,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -4216,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ124"/>
   <sheetViews>
-    <sheetView topLeftCell="N105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE124" sqref="AE124"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5281,7 +5345,7 @@
         <v>134</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="I31">
         <v>1.6E-2</v>
@@ -5302,7 +5366,7 @@
         <v>100000000000000</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -5313,7 +5377,7 @@
         <v>145</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -5422,7 +5486,7 @@
         <v>4.1312053994817056E-2</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -5474,7 +5538,7 @@
         <v>2.8977848000200971E-3</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -6853,7 +6917,7 @@
         <v xml:space="preserve">  0.0413120539948171,  _,  _,  _,   _,</v>
       </c>
       <c r="N65" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="3:14" x14ac:dyDescent="0.25">
@@ -6882,7 +6946,7 @@
         <v xml:space="preserve">  0.0028977848000201,  _,  _,  _,   _,</v>
       </c>
       <c r="N66" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.25">
@@ -6911,7 +6975,7 @@
         <v xml:space="preserve">  0.00356987730842551,  _,  _,  _,   _,</v>
       </c>
       <c r="N67" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="3:14" x14ac:dyDescent="0.25">
@@ -6940,7 +7004,7 @@
         <v xml:space="preserve">  0.0816681808693169,  _,  _,  _,   _,</v>
       </c>
       <c r="N68" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="3:14" x14ac:dyDescent="0.25">
@@ -6969,7 +7033,7 @@
         <v xml:space="preserve">  0.00621629418047132,  _,  _,  _,   _,</v>
       </c>
       <c r="N69" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="3:14" x14ac:dyDescent="0.25">
@@ -6998,7 +7062,7 @@
         <v xml:space="preserve">  0.0141895111622896,  _,  _,  _,   _,</v>
       </c>
       <c r="N70" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="3:14" x14ac:dyDescent="0.25">
@@ -7027,7 +7091,7 @@
         <v xml:space="preserve">  0.0306376895364652,  _,  _,  _,   _,</v>
       </c>
       <c r="N71" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="3:14" x14ac:dyDescent="0.25">
@@ -7056,7 +7120,7 @@
         <v xml:space="preserve">  0.012805807845432,  _,  _,  _,   _,</v>
       </c>
       <c r="N72" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="3:14" x14ac:dyDescent="0.25">
@@ -7085,7 +7149,7 @@
         <v xml:space="preserve">  0.00253243374269256,  _,  _,  _,   _,</v>
       </c>
       <c r="N73" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="3:14" x14ac:dyDescent="0.25">
@@ -7114,7 +7178,7 @@
         <v xml:space="preserve">  0.0053262345418044,  _,  _,  _,   _,</v>
       </c>
       <c r="N74" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="3:14" x14ac:dyDescent="0.25">
@@ -7143,7 +7207,7 @@
         <v xml:space="preserve">  0.00191700421617492,  _,  _,  _,   _,</v>
       </c>
       <c r="N75" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="3:14" x14ac:dyDescent="0.25">
@@ -7172,7 +7236,7 @@
         <v xml:space="preserve">  0.0639285713586265,  _,  _,  _,   _,</v>
       </c>
       <c r="N76" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="3:14" x14ac:dyDescent="0.25">
@@ -7201,7 +7265,7 @@
         <v xml:space="preserve">  0.00876897014481673,  _,  _,  _,   _,</v>
       </c>
       <c r="N77" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="3:14" x14ac:dyDescent="0.25">
@@ -7230,7 +7294,7 @@
         <v xml:space="preserve">  0.00605562080749151,  _,  _,  _,   _,</v>
       </c>
       <c r="N78" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="3:14" x14ac:dyDescent="0.25">
@@ -7259,7 +7323,7 @@
         <v xml:space="preserve">  0.00731245858568842,  _,  _,  _,   _,</v>
       </c>
       <c r="N79" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="3:14" x14ac:dyDescent="0.25">
@@ -7288,7 +7352,7 @@
         <v xml:space="preserve">  0.00158914584916489,  _,  _,  _,   _,</v>
       </c>
       <c r="N80" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
@@ -7317,7 +7381,7 @@
         <v xml:space="preserve">  0.0202073681824202,  _,  _,  _,   _,</v>
       </c>
       <c r="N81" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
@@ -7346,7 +7410,7 @@
         <v xml:space="preserve">  0.0199457993403265,  _,  _,  _,   _,</v>
       </c>
       <c r="N82" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
@@ -7375,7 +7439,7 @@
         <v xml:space="preserve">  0.0110120510423912,  _,  _,  _,   _,</v>
       </c>
       <c r="N83" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
@@ -7404,7 +7468,7 @@
         <v xml:space="preserve">  0.0183785957231647,  _,  _,  _,   _,</v>
       </c>
       <c r="N84" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
@@ -7433,7 +7497,7 @@
         <v xml:space="preserve">  0.0339145663632122,  _,  _,  _,   _,</v>
       </c>
       <c r="N85" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
@@ -7462,7 +7526,7 @@
         <v xml:space="preserve">  0.0195010475010361,  _,  _,  _,   _,</v>
       </c>
       <c r="N86" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
@@ -7491,7 +7555,7 @@
         <v xml:space="preserve">  0,  _,  _,  _,   _,</v>
       </c>
       <c r="N87" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
@@ -7520,7 +7584,7 @@
         <v xml:space="preserve">  0,  _,  _,  _,   _,</v>
       </c>
       <c r="N88" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
@@ -7549,7 +7613,7 @@
         <v xml:space="preserve">  0,  _,  _,  _,   _,</v>
       </c>
       <c r="N89" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
@@ -7578,7 +7642,7 @@
         <v xml:space="preserve">  0,  _,  _,  _,   _,</v>
       </c>
       <c r="N90" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
@@ -7607,7 +7671,7 @@
         <v xml:space="preserve">  0,  _,  _,  _,   _,</v>
       </c>
       <c r="N91" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
@@ -7636,12 +7700,12 @@
         <v xml:space="preserve">  0,  _,  _,  _,   _,</v>
       </c>
       <c r="N92" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C93" s="15">
         <f t="shared" si="5"/>
@@ -7668,12 +7732,12 @@
         <v xml:space="preserve">  0,  _,  _,  _,  _ ;</v>
       </c>
       <c r="N93" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -7683,7 +7747,7 @@
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B95">
         <v>3.7325575100000001E-2</v>
@@ -7737,7 +7801,7 @@
         <v>4.3803943400000003E-2</v>
       </c>
       <c r="S95" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="T95">
         <v>3.0794264500000001E-2</v>
@@ -7778,7 +7842,7 @@
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B96">
         <v>5.1938361299999999E-2</v>
@@ -7832,7 +7896,7 @@
         <v>5.7861785999999997E-3</v>
       </c>
       <c r="S96" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="T96">
         <v>1.7160124499999999E-2</v>
@@ -7876,10 +7940,10 @@
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C98" s="2">
         <v>30</v>
@@ -7990,7 +8054,7 @@
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C101" s="2">
         <v>30</v>
@@ -8101,7 +8165,7 @@
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C104" s="2">
         <v>30</v>
@@ -8212,7 +8276,7 @@
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C107" s="2">
         <v>30</v>
@@ -8323,10 +8387,10 @@
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B110" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C110" s="2">
         <v>30</v>
@@ -8451,7 +8515,7 @@
     </row>
     <row r="113" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C113" s="2">
         <v>30</v>
@@ -8577,7 +8641,7 @@
     </row>
     <row r="116" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C116" s="2">
         <v>30</v>
@@ -8706,7 +8770,7 @@
     </row>
     <row r="119" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C119" s="2">
         <v>30</v>
@@ -8932,8 +8996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG116"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N64" sqref="N64"/>
+    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N64" sqref="N64:N93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9997,7 +10061,7 @@
         <v>134</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="I31">
         <v>1.6E-2</v>
@@ -10018,7 +10082,7 @@
         <v>10000000000000</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -10029,7 +10093,7 @@
         <v>145</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -10052,16 +10116,16 @@
         <v>0</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -10100,17 +10164,17 @@
         <f t="shared" si="0"/>
         <v>4.3039336581231913E-4</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>133</v>
+      <c r="D34" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -10138,7 +10202,7 @@
         <v>4.3039336581231913E-4</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -10152,17 +10216,17 @@
         <f t="shared" si="0"/>
         <v>5.8250007097315865E-5</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>133</v>
+      <c r="D35" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -10190,7 +10254,7 @@
         <v>5.8250007097315865E-5</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -10204,17 +10268,17 @@
         <f t="shared" si="0"/>
         <v>1.444998442235608E-4</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>133</v>
+      <c r="D36" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -10253,17 +10317,17 @@
         <f t="shared" si="0"/>
         <v>3.3394952626137468E-3</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>133</v>
+      <c r="D37" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -10302,17 +10366,17 @@
         <f t="shared" si="0"/>
         <v>1.1415384196671764E-4</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>133</v>
+      <c r="D38" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -10351,17 +10415,17 @@
         <f t="shared" si="0"/>
         <v>1.2010019282024244E-3</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>133</v>
+      <c r="D39" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -10400,17 +10464,17 @@
         <f t="shared" si="0"/>
         <v>6.3294723978004714E-3</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>133</v>
+      <c r="D40" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -10449,17 +10513,17 @@
         <f t="shared" si="0"/>
         <v>6.0408935992502157E-4</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>133</v>
+      <c r="D41" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -10498,17 +10562,17 @@
         <f t="shared" si="0"/>
         <v>4.879985551084302E-5</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>133</v>
+      <c r="D42" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -10547,17 +10611,17 @@
         <f t="shared" si="0"/>
         <v>1.2632536305424541E-4</v>
       </c>
-      <c r="D43" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>133</v>
+      <c r="D43" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -10596,17 +10660,17 @@
         <f t="shared" si="0"/>
         <v>9.6411273964164718E-5</v>
       </c>
-      <c r="D44" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>133</v>
+      <c r="D44" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -10645,17 +10709,17 @@
         <f t="shared" si="0"/>
         <v>1.6576407591674858E-3</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>133</v>
+      <c r="D45" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -10694,17 +10758,17 @@
         <f t="shared" si="0"/>
         <v>4.7878398104504754E-4</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>133</v>
+      <c r="D46" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -10743,17 +10807,17 @@
         <f t="shared" si="0"/>
         <v>1.4528225914364876E-3</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>133</v>
+      <c r="D47" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -10792,17 +10856,17 @@
         <f t="shared" si="0"/>
         <v>9.7233343927654399E-4</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>133</v>
+      <c r="D48" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -10841,17 +10905,17 @@
         <f t="shared" si="0"/>
         <v>1.5386134235225944E-6</v>
       </c>
-      <c r="D49" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>133</v>
+      <c r="D49" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -10890,17 +10954,17 @@
         <f t="shared" si="0"/>
         <v>2.3291360660353945E-3</v>
       </c>
-      <c r="D50" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>133</v>
+      <c r="D50" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -10939,17 +11003,17 @@
         <f t="shared" si="0"/>
         <v>2.2989871907156778E-3</v>
       </c>
-      <c r="D51" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>133</v>
+      <c r="D51" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -10988,17 +11052,17 @@
         <f t="shared" si="0"/>
         <v>1.5162616439909008E-3</v>
       </c>
-      <c r="D52" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>133</v>
+      <c r="D52" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -11037,17 +11101,17 @@
         <f t="shared" si="0"/>
         <v>2.8640059299913567E-3</v>
       </c>
-      <c r="D53" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>133</v>
+      <c r="D53" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -11086,17 +11150,17 @@
         <f t="shared" si="0"/>
         <v>6.768344682035657E-3</v>
       </c>
-      <c r="D54" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>133</v>
+      <c r="D54" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -11135,17 +11199,17 @@
         <f t="shared" si="0"/>
         <v>3.5845369518092882E-3</v>
       </c>
-      <c r="D55" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>133</v>
+      <c r="D55" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -11184,17 +11248,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D56" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>133</v>
+      <c r="D56" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -11232,17 +11296,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D57" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>133</v>
+      <c r="D57" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -11280,17 +11344,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D58" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>133</v>
+      <c r="D58" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -11329,17 +11393,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D59" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>133</v>
+      <c r="D59" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -11378,17 +11442,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D60" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>133</v>
+      <c r="D60" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H60">
         <v>4</v>
@@ -11427,17 +11491,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D61" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>133</v>
+      <c r="D61" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -11476,17 +11540,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D62" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>142</v>
+      <c r="D62" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H62">
         <v>4</v>
@@ -11521,26 +11585,26 @@
       </c>
       <c r="D64" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E64" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F64" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G64" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" ref="I64:I92" si="3">"  "&amp;C64&amp;", "&amp;D64&amp;", "&amp;E64&amp;", "&amp;F64&amp;", "&amp;G64&amp;","</f>
-        <v xml:space="preserve">  0,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="N64" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="3:14" x14ac:dyDescent="0.25">
@@ -11550,26 +11614,26 @@
       </c>
       <c r="D65" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E65" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F65" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G65" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.000430393365812319,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.000430393365812319, _, _, _, _,</v>
       </c>
       <c r="N65" t="s">
-        <v>205</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="3:14" x14ac:dyDescent="0.25">
@@ -11579,26 +11643,26 @@
       </c>
       <c r="D66" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E66" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F66" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G66" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  5.82500070973159E-05,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  5.82500070973159E-05, _, _, _, _,</v>
       </c>
       <c r="N66" t="s">
-        <v>206</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.25">
@@ -11608,26 +11672,26 @@
       </c>
       <c r="D67" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E67" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F67" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G67" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.000144499844223561,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.000144499844223561, _, _, _, _,</v>
       </c>
       <c r="N67" t="s">
-        <v>207</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="3:14" x14ac:dyDescent="0.25">
@@ -11637,26 +11701,26 @@
       </c>
       <c r="D68" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E68" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F68" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G68" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.00333949526261375,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.00333949526261375, _, _, _, _,</v>
       </c>
       <c r="N68" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="3:14" x14ac:dyDescent="0.25">
@@ -11666,26 +11730,26 @@
       </c>
       <c r="D69" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E69" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F69" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G69" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.000114153841966718,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.000114153841966718, _, _, _, _,</v>
       </c>
       <c r="N69" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="3:14" x14ac:dyDescent="0.25">
@@ -11695,26 +11759,26 @@
       </c>
       <c r="D70" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E70" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F70" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G70" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.00120100192820242,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.00120100192820242, _, _, _, _,</v>
       </c>
       <c r="N70" t="s">
-        <v>210</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="3:14" x14ac:dyDescent="0.25">
@@ -11724,26 +11788,26 @@
       </c>
       <c r="D71" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E71" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F71" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G71" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.00632947239780047,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.00632947239780047, _, _, _, _,</v>
       </c>
       <c r="N71" t="s">
-        <v>211</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="3:14" x14ac:dyDescent="0.25">
@@ -11753,26 +11817,26 @@
       </c>
       <c r="D72" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E72" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F72" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G72" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.000604089359925022,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.000604089359925022, _, _, _, _,</v>
       </c>
       <c r="N72" t="s">
-        <v>212</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="3:14" x14ac:dyDescent="0.25">
@@ -11782,26 +11846,26 @@
       </c>
       <c r="D73" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E73" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F73" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G73" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.000048799855510843,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.000048799855510843, _, _, _, _,</v>
       </c>
       <c r="N73" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="3:14" x14ac:dyDescent="0.25">
@@ -11811,26 +11875,26 @@
       </c>
       <c r="D74" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E74" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F74" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G74" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.000126325363054245,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.000126325363054245, _, _, _, _,</v>
       </c>
       <c r="N74" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="3:14" x14ac:dyDescent="0.25">
@@ -11840,26 +11904,26 @@
       </c>
       <c r="D75" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E75" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F75" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G75" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  9.64112739641647E-05,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  9.64112739641647E-05, _, _, _, _,</v>
       </c>
       <c r="N75" t="s">
-        <v>215</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="3:14" x14ac:dyDescent="0.25">
@@ -11869,26 +11933,26 @@
       </c>
       <c r="D76" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E76" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F76" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G76" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.00165764075916749,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.00165764075916749, _, _, _, _,</v>
       </c>
       <c r="N76" t="s">
-        <v>216</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="3:14" x14ac:dyDescent="0.25">
@@ -11898,26 +11962,26 @@
       </c>
       <c r="D77" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E77" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F77" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G77" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.000478783981045048,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.000478783981045048, _, _, _, _,</v>
       </c>
       <c r="N77" t="s">
-        <v>217</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="3:14" x14ac:dyDescent="0.25">
@@ -11927,26 +11991,26 @@
       </c>
       <c r="D78" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E78" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F78" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G78" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.00145282259143649,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.00145282259143649, _, _, _, _,</v>
       </c>
       <c r="N78" t="s">
-        <v>218</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="3:14" x14ac:dyDescent="0.25">
@@ -11956,26 +12020,26 @@
       </c>
       <c r="D79" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E79" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F79" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G79" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.000972333439276544,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.000972333439276544, _, _, _, _,</v>
       </c>
       <c r="N79" t="s">
-        <v>219</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="3:14" x14ac:dyDescent="0.25">
@@ -11985,26 +12049,26 @@
       </c>
       <c r="D80" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E80" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F80" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G80" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  1.53861342352259E-06,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  1.53861342352259E-06, _, _, _, _,</v>
       </c>
       <c r="N80" t="s">
-        <v>220</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
@@ -12014,26 +12078,26 @@
       </c>
       <c r="D81" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E81" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F81" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G81" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.00232913606603539,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.00232913606603539, _, _, _, _,</v>
       </c>
       <c r="N81" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
@@ -12043,26 +12107,26 @@
       </c>
       <c r="D82" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E82" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F82" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G82" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.00229898719071568,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.00229898719071568, _, _, _, _,</v>
       </c>
       <c r="N82" t="s">
-        <v>222</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
@@ -12072,26 +12136,26 @@
       </c>
       <c r="D83" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E83" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F83" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G83" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.0015162616439909,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.0015162616439909, _, _, _, _,</v>
       </c>
       <c r="N83" t="s">
-        <v>223</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
@@ -12101,26 +12165,26 @@
       </c>
       <c r="D84" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E84" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F84" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G84" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.00286400592999136,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.00286400592999136, _, _, _, _,</v>
       </c>
       <c r="N84" t="s">
-        <v>224</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
@@ -12130,26 +12194,26 @@
       </c>
       <c r="D85" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E85" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F85" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G85" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.00676834468203566,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.00676834468203566, _, _, _, _,</v>
       </c>
       <c r="N85" t="s">
-        <v>225</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
@@ -12159,26 +12223,26 @@
       </c>
       <c r="D86" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E86" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F86" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G86" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I86" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.00358453695180929,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.00358453695180929, _, _, _, _,</v>
       </c>
       <c r="N86" t="s">
-        <v>226</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
@@ -12188,26 +12252,26 @@
       </c>
       <c r="D87" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E87" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F87" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G87" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="N87" t="s">
-        <v>191</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
@@ -12217,26 +12281,26 @@
       </c>
       <c r="D88" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E88" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F88" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G88" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="N88" t="s">
-        <v>191</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
@@ -12246,26 +12310,26 @@
       </c>
       <c r="D89" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E89" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F89" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G89" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="N89" t="s">
-        <v>191</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
@@ -12275,26 +12339,26 @@
       </c>
       <c r="D90" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E90" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F90" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G90" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="N90" t="s">
-        <v>191</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
@@ -12304,26 +12368,26 @@
       </c>
       <c r="D91" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E91" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F91" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G91" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="N91" t="s">
-        <v>191</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
@@ -12333,26 +12397,26 @@
       </c>
       <c r="D92" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E92" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F92" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G92" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,  _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="N92" t="s">
-        <v>191</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
@@ -12362,34 +12426,34 @@
       </c>
       <c r="D93" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="E93" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F93" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G93" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _ </v>
+        <v>_</v>
       </c>
       <c r="I93" t="str">
         <f>"  "&amp;C93&amp;", "&amp;D93&amp;", "&amp;E93&amp;", "&amp;F93&amp;", "&amp;G93&amp;" ;"</f>
-        <v xml:space="preserve">  0,  _,  _,  _,  _  ;</v>
+        <v xml:space="preserve">  0, _, _, _, _ ;</v>
       </c>
       <c r="N93" t="s">
-        <v>227</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B94" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="C94" s="2">
         <v>30</v>
@@ -12497,7 +12561,7 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="C96" s="2">
         <v>30</v>
@@ -12609,7 +12673,7 @@
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="C98" s="2">
         <v>30</v>
@@ -12721,7 +12785,7 @@
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="C100" s="2">
         <v>30</v>
@@ -12833,7 +12897,7 @@
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="C102" s="2">
         <v>30</v>
@@ -12945,7 +13009,7 @@
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="C104" s="2">
         <v>30</v>
@@ -13057,7 +13121,7 @@
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="C106" s="2">
         <v>30</v>
@@ -13169,7 +13233,7 @@
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="C108" s="2">
         <v>30</v>
@@ -13281,7 +13345,7 @@
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -13295,7 +13359,7 @@
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="B111">
         <v>3.4842768E-3</v>
@@ -13394,7 +13458,7 @@
     </row>
     <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="B112">
         <v>3.4842768E-3</v>
@@ -13493,7 +13557,7 @@
     </row>
     <row r="113" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="B113">
         <v>3.1061498000000002E-3</v>
@@ -13592,7 +13656,7 @@
     </row>
     <row r="114" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="B114">
         <v>3.1061498000000002E-3</v>
@@ -13698,7 +13762,7 @@
     </row>
     <row r="116" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -13733,19 +13797,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
         <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -13762,7 +13826,7 @@
         <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13779,7 +13843,7 @@
         <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13796,7 +13860,7 @@
         <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -13813,7 +13877,7 @@
         <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -13830,7 +13894,7 @@
         <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -13847,7 +13911,7 @@
         <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13864,7 +13928,7 @@
         <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -13881,7 +13945,7 @@
         <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -13898,7 +13962,7 @@
         <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -13915,7 +13979,7 @@
         <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -13932,7 +13996,7 @@
         <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -13949,7 +14013,7 @@
         <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -13966,7 +14030,7 @@
         <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -13983,7 +14047,7 @@
         <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -14000,7 +14064,7 @@
         <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -14017,7 +14081,7 @@
         <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -14034,7 +14098,7 @@
         <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -14051,7 +14115,7 @@
         <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -14068,7 +14132,7 @@
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -14085,7 +14149,7 @@
         <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -14102,7 +14166,7 @@
         <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -14119,7 +14183,7 @@
         <v>105</v>
       </c>
       <c r="E23" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -14136,7 +14200,7 @@
         <v>106</v>
       </c>
       <c r="E24" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -14153,7 +14217,7 @@
         <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -14170,7 +14234,7 @@
         <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -14187,7 +14251,7 @@
         <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -14204,7 +14268,7 @@
         <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -14221,7 +14285,7 @@
         <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -14238,7 +14302,7 @@
         <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -14255,7 +14319,7 @@
         <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -14272,7 +14336,7 @@
         <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -14289,7 +14353,7 @@
         <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -14306,7 +14370,7 @@
         <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -14323,7 +14387,7 @@
         <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -14340,7 +14404,7 @@
         <v>114</v>
       </c>
       <c r="E36" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -14357,7 +14421,7 @@
         <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -14374,7 +14438,7 @@
         <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -14391,7 +14455,7 @@
         <v>106</v>
       </c>
       <c r="E39" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -14408,7 +14472,7 @@
         <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -14425,7 +14489,7 @@
         <v>106</v>
       </c>
       <c r="E41" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -14442,7 +14506,7 @@
         <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -14459,7 +14523,7 @@
         <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -14476,7 +14540,7 @@
         <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -14493,7 +14557,7 @@
         <v>106</v>
       </c>
       <c r="E45" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -14510,7 +14574,7 @@
         <v>106</v>
       </c>
       <c r="E46" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -14527,7 +14591,7 @@
         <v>115</v>
       </c>
       <c r="E47" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -14544,7 +14608,7 @@
         <v>104</v>
       </c>
       <c r="E48" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -14561,7 +14625,7 @@
         <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -14578,7 +14642,7 @@
         <v>106</v>
       </c>
       <c r="E50" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -14595,7 +14659,7 @@
         <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -14612,7 +14676,7 @@
         <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -14629,7 +14693,7 @@
         <v>116</v>
       </c>
       <c r="E53" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -14646,7 +14710,7 @@
         <v>104</v>
       </c>
       <c r="E54" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -14663,7 +14727,7 @@
         <v>104</v>
       </c>
       <c r="E55" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -14680,7 +14744,7 @@
         <v>117</v>
       </c>
       <c r="E56" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -14697,7 +14761,7 @@
         <v>118</v>
       </c>
       <c r="E57" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -14714,7 +14778,7 @@
         <v>119</v>
       </c>
       <c r="E58" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -14731,7 +14795,7 @@
         <v>116</v>
       </c>
       <c r="E59" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -14748,7 +14812,7 @@
         <v>120</v>
       </c>
       <c r="E60" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -14765,7 +14829,7 @@
         <v>119</v>
       </c>
       <c r="E61" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -14782,7 +14846,7 @@
         <v>121</v>
       </c>
       <c r="E62" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -14799,7 +14863,7 @@
         <v>106</v>
       </c>
       <c r="E63" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -14816,7 +14880,7 @@
         <v>122</v>
       </c>
       <c r="E64" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -14833,7 +14897,7 @@
         <v>123</v>
       </c>
       <c r="E65" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -14850,7 +14914,7 @@
         <v>124</v>
       </c>
       <c r="E66" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -14867,7 +14931,7 @@
         <v>107</v>
       </c>
       <c r="E67" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -14884,7 +14948,7 @@
         <v>104</v>
       </c>
       <c r="E68" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -14901,7 +14965,7 @@
         <v>125</v>
       </c>
       <c r="E69" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -14918,7 +14982,7 @@
         <v>126</v>
       </c>
       <c r="E70" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -14935,7 +14999,7 @@
         <v>114</v>
       </c>
       <c r="E71" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -14952,7 +15016,7 @@
         <v>114</v>
       </c>
       <c r="E72" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -14969,7 +15033,7 @@
         <v>127</v>
       </c>
       <c r="E73" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -14986,7 +15050,7 @@
         <v>107</v>
       </c>
       <c r="E74" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -15001,7 +15065,7 @@
         <v>#N/A</v>
       </c>
       <c r="E75" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -15016,7 +15080,7 @@
         <v>#N/A</v>
       </c>
       <c r="E76" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -15024,14 +15088,14 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="C77" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="E77" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -15048,7 +15112,7 @@
         <v>107</v>
       </c>
       <c r="E78" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -15065,7 +15129,7 @@
         <v>127</v>
       </c>
       <c r="E79" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -15082,7 +15146,7 @@
         <v>128</v>
       </c>
       <c r="E80" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -15099,7 +15163,7 @@
         <v>128</v>
       </c>
       <c r="E81" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -15116,7 +15180,7 @@
         <v>128</v>
       </c>
       <c r="E82" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -15133,7 +15197,7 @@
         <v>127</v>
       </c>
       <c r="E83" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -15150,7 +15214,7 @@
         <v>127</v>
       </c>
       <c r="E84" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -15167,7 +15231,7 @@
         <v>104</v>
       </c>
       <c r="E85" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -15184,7 +15248,7 @@
         <v>107</v>
       </c>
       <c r="E86" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -15201,7 +15265,7 @@
         <v>104</v>
       </c>
       <c r="E87" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -15216,7 +15280,7 @@
         <v>#N/A</v>
       </c>
       <c r="E88" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -15231,7 +15295,7 @@
         <v>#N/A</v>
       </c>
       <c r="E89" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -15246,7 +15310,7 @@
         <v>#N/A</v>
       </c>
       <c r="E90" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -30351,8 +30415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92:J93"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35096,13 +35160,13 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I92" s="19" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="J92" s="19"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I93" s="20" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="J93" s="19"/>
       <c r="P93" s="3">
@@ -35133,8 +35197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS93"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P64" sqref="P64"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36935,16 +36999,16 @@
         <v>0</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -36984,16 +37048,16 @@
         <v>0</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -37033,16 +37097,16 @@
         <v>0</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -37082,16 +37146,16 @@
         <v>0</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -37131,16 +37195,16 @@
         <v>0</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -37180,16 +37244,16 @@
         <v>0</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -37229,16 +37293,16 @@
         <v>0</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -37278,16 +37342,16 @@
         <v>0</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -37327,16 +37391,16 @@
         <v>3.0573402278289169E-2</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -37376,16 +37440,16 @@
         <v>0</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -37425,16 +37489,16 @@
         <v>2.1108827137398572E-2</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -37474,16 +37538,16 @@
         <v>8.5595166581717355E-3</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -37523,16 +37587,16 @@
         <v>1.4481667457081206E-2</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -37572,16 +37636,16 @@
         <v>3.2490819899341994E-2</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -37621,16 +37685,16 @@
         <v>0</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -37670,16 +37734,16 @@
         <v>0</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -37719,16 +37783,16 @@
         <v>1.0188977224805631E-2</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -37768,16 +37832,16 @@
         <v>1.9400287828099102E-2</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -37817,16 +37881,16 @@
         <v>1.8392655758024037E-2</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -37866,16 +37930,16 @@
         <v>7.971471504938028E-3</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -37915,16 +37979,16 @@
         <v>6.9058079256815192E-3</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -37964,16 +38028,16 @@
         <v>8.5331954412649971E-3</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -38013,16 +38077,16 @@
         <v>1.3283900379781735E-2</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -38062,16 +38126,16 @@
         <v>0</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -38110,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -38158,16 +38222,16 @@
         <v>0</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -38207,16 +38271,16 @@
         <v>0</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -38256,16 +38320,16 @@
         <v>0</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H60">
         <v>4</v>
@@ -38305,16 +38369,16 @@
         <v>0</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -38354,16 +38418,16 @@
         <v>0</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H62">
         <v>4</v>
@@ -38398,26 +38462,26 @@
       </c>
       <c r="D64" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E64" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F64" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G64" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" ref="I64:I92" si="3">"  "&amp;C64&amp;", "&amp;D64&amp;", "&amp;E64&amp;", "&amp;F64&amp;", "&amp;G64&amp;","</f>
-        <v xml:space="preserve">  0,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P64" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="3:16" x14ac:dyDescent="0.25">
@@ -38427,26 +38491,26 @@
       </c>
       <c r="D65" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E65" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F65" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G65" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P65" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="3:16" x14ac:dyDescent="0.25">
@@ -38456,26 +38520,26 @@
       </c>
       <c r="D66" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E66" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F66" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G66" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P66" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="3:16" x14ac:dyDescent="0.25">
@@ -38485,26 +38549,26 @@
       </c>
       <c r="D67" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E67" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F67" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G67" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P67" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="3:16" x14ac:dyDescent="0.25">
@@ -38514,26 +38578,26 @@
       </c>
       <c r="D68" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E68" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F68" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G68" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P68" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="3:16" x14ac:dyDescent="0.25">
@@ -38543,26 +38607,26 @@
       </c>
       <c r="D69" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E69" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F69" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G69" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P69" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="3:16" x14ac:dyDescent="0.25">
@@ -38572,26 +38636,26 @@
       </c>
       <c r="D70" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E70" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F70" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G70" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P70" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="3:16" x14ac:dyDescent="0.25">
@@ -38601,26 +38665,26 @@
       </c>
       <c r="D71" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E71" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F71" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G71" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P71" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="3:16" x14ac:dyDescent="0.25">
@@ -38630,26 +38694,26 @@
       </c>
       <c r="D72" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E72" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F72" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G72" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.0305734022782892,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.0305734022782892, _, _, _, _,</v>
       </c>
       <c r="P72" t="s">
-        <v>149</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" spans="3:16" x14ac:dyDescent="0.25">
@@ -38659,26 +38723,26 @@
       </c>
       <c r="D73" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E73" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F73" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G73" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P73" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="3:16" x14ac:dyDescent="0.25">
@@ -38688,26 +38752,26 @@
       </c>
       <c r="D74" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E74" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F74" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G74" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.0211088271373986,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.0211088271373986, _, _, _, _,</v>
       </c>
       <c r="P74" t="s">
-        <v>150</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="3:16" x14ac:dyDescent="0.25">
@@ -38717,26 +38781,26 @@
       </c>
       <c r="D75" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E75" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F75" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G75" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.00855951665817174,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.00855951665817174, _, _, _, _,</v>
       </c>
       <c r="P75" t="s">
-        <v>151</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="3:16" x14ac:dyDescent="0.25">
@@ -38746,26 +38810,26 @@
       </c>
       <c r="D76" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E76" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F76" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G76" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.0144816674570812,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.0144816674570812, _, _, _, _,</v>
       </c>
       <c r="P76" t="s">
-        <v>152</v>
+        <v>329</v>
       </c>
     </row>
     <row r="77" spans="3:16" x14ac:dyDescent="0.25">
@@ -38775,26 +38839,26 @@
       </c>
       <c r="D77" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E77" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F77" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G77" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.032490819899342,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.032490819899342, _, _, _, _,</v>
       </c>
       <c r="P77" t="s">
-        <v>153</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="3:16" x14ac:dyDescent="0.25">
@@ -38804,26 +38868,26 @@
       </c>
       <c r="D78" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E78" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F78" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G78" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P78" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="3:16" x14ac:dyDescent="0.25">
@@ -38833,26 +38897,26 @@
       </c>
       <c r="D79" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E79" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F79" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G79" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P79" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="3:16" x14ac:dyDescent="0.25">
@@ -38862,26 +38926,26 @@
       </c>
       <c r="D80" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E80" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F80" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G80" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.0101889772248056,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.0101889772248056, _, _, _, _,</v>
       </c>
       <c r="P80" t="s">
-        <v>154</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="3:16" x14ac:dyDescent="0.25">
@@ -38891,26 +38955,26 @@
       </c>
       <c r="D81" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E81" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F81" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G81" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.0194002878280991,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.0194002878280991, _, _, _, _,</v>
       </c>
       <c r="P81" t="s">
-        <v>155</v>
+        <v>332</v>
       </c>
     </row>
     <row r="82" spans="3:16" x14ac:dyDescent="0.25">
@@ -38920,26 +38984,26 @@
       </c>
       <c r="D82" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E82" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F82" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G82" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.018392655758024,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.018392655758024, _, _, _, _,</v>
       </c>
       <c r="P82" t="s">
-        <v>156</v>
+        <v>333</v>
       </c>
     </row>
     <row r="83" spans="3:16" x14ac:dyDescent="0.25">
@@ -38949,26 +39013,26 @@
       </c>
       <c r="D83" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E83" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F83" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G83" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.00797147150493803,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.00797147150493803, _, _, _, _,</v>
       </c>
       <c r="P83" t="s">
-        <v>157</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="3:16" x14ac:dyDescent="0.25">
@@ -38978,26 +39042,26 @@
       </c>
       <c r="D84" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E84" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F84" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G84" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.00690580792568152,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.00690580792568152, _, _, _, _,</v>
       </c>
       <c r="P84" t="s">
-        <v>158</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" spans="3:16" x14ac:dyDescent="0.25">
@@ -39007,26 +39071,26 @@
       </c>
       <c r="D85" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E85" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F85" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G85" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.008533195441265,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.008533195441265, _, _, _, _,</v>
       </c>
       <c r="P85" t="s">
-        <v>159</v>
+        <v>336</v>
       </c>
     </row>
     <row r="86" spans="3:16" x14ac:dyDescent="0.25">
@@ -39036,26 +39100,26 @@
       </c>
       <c r="D86" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E86" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F86" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G86" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I86" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.0132839003797817,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0.0132839003797817, _, _, _, _,</v>
       </c>
       <c r="P86" t="s">
-        <v>160</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87" spans="3:16" x14ac:dyDescent="0.25">
@@ -39065,26 +39129,26 @@
       </c>
       <c r="D87" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E87" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F87" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G87" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P87" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="3:16" x14ac:dyDescent="0.25">
@@ -39094,26 +39158,26 @@
       </c>
       <c r="D88" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E88" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F88" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G88" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P88" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="3:16" x14ac:dyDescent="0.25">
@@ -39123,26 +39187,26 @@
       </c>
       <c r="D89" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E89" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F89" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G89" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P89" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="3:16" x14ac:dyDescent="0.25">
@@ -39152,26 +39216,26 @@
       </c>
       <c r="D90" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E90" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F90" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G90" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P90" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="3:16" x14ac:dyDescent="0.25">
@@ -39181,26 +39245,26 @@
       </c>
       <c r="D91" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E91" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F91" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G91" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P91" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="3:16" x14ac:dyDescent="0.25">
@@ -39210,26 +39274,26 @@
       </c>
       <c r="D92" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E92" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F92" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G92" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  0,   _,  _,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P92" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="3:16" x14ac:dyDescent="0.25">
@@ -39239,26 +39303,26 @@
       </c>
       <c r="D93" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="E93" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="F93" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G93" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I93" t="str">
         <f>"  "&amp;C93&amp;", "&amp;D93&amp;", "&amp;E93&amp;", "&amp;F93&amp;", "&amp;G93&amp;" ;"</f>
-        <v xml:space="preserve">  0,   _,  _,  _,   _ ;</v>
+        <v xml:space="preserve">  0, _, _, _, _ ;</v>
       </c>
       <c r="P93" t="s">
-        <v>161</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -39269,10 +39333,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:AQ93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39280,12 +39344,12 @@
     <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D1" s="7">
         <f>SUM(B2:B31)</f>
@@ -39296,9 +39360,113 @@
         <v>0.14284238755769996</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H1" s="2">
+        <v>2.9799999999999999E-8</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2.9799999999999999E-8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2.98484E-5</v>
+      </c>
+      <c r="N1" s="21">
+        <v>0</v>
+      </c>
+      <c r="O1" s="22">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="P1" s="7">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="Q1" s="7">
+        <v>0</v>
+      </c>
+      <c r="R1" s="7">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="S1" s="7">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="T1" s="7">
+        <v>0.1101</v>
+      </c>
+      <c r="U1" s="7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="V1" s="7">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="W1" s="7">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="X1" s="7">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="Y1" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="7">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="AA1" s="7">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="AB1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="7">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="AD1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="7">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="AF1" s="7">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="AG1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="7">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="AK1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -39313,13 +39481,31 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E31" si="1">D2*B2</f>
+        <f>$D$2*B2</f>
         <v>0</v>
       </c>
       <c r="F2" s="2"/>
+      <c r="H2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2.1650799999999999E-5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" t="s">
+        <v>353</v>
+      </c>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -39334,14 +39520,29 @@
         <v>0.10501084626536979</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5751626939805468E-3</v>
+        <f t="shared" ref="E3:E31" si="1">$D$2*B3</f>
+        <v>0</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
+      <c r="H3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.2300000000000001E-5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.2300000000000001E-5</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.2300000000000001E-5</v>
+      </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -39357,12 +39558,27 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>1.0591393954325197E-9</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2"/>
+      <c r="H4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" t="s">
+        <v>134</v>
+      </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -39378,13 +39594,28 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>1.5751626939805468E-3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
+      <c r="H5" s="2">
+        <v>1.7379000000000001E-5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.7379000000000001E-5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="2">
+        <v>7.1799999999999999E-6</v>
+      </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -39400,12 +39631,27 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>3.6090407673405664E-10</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2"/>
+      <c r="H6" s="2">
+        <v>7.1799999999999999E-6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.3383600000000001E-5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>134</v>
+      </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -39421,12 +39667,27 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>1.5751626939805468E-3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2"/>
+      <c r="H7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J7">
+        <v>1.2643800000000001E-4</v>
+      </c>
+      <c r="K7">
+        <v>1.2643800000000001E-4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>134</v>
+      </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -39442,12 +39703,27 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>1.5751626939805468E-3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2"/>
+      <c r="H8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1.8499999999999999E-5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.8499999999999999E-5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" t="s">
+        <v>134</v>
+      </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -39463,12 +39739,27 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>1.5751626939805468E-3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2"/>
+      <c r="H9">
+        <v>4.7021820000000001E-3</v>
+      </c>
+      <c r="I9">
+        <v>4.7021820000000001E-3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s">
+        <v>134</v>
+      </c>
+      <c r="L9">
+        <v>6.7489099999999995E-4</v>
+      </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -39484,12 +39775,27 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>3.1886743820843345E-6</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2"/>
+      <c r="H10">
+        <v>6.7489099999999995E-4</v>
+      </c>
+      <c r="I10">
+        <v>6.7489099999999995E-4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10">
+        <v>1.9645400000000001E-4</v>
+      </c>
+      <c r="L10">
+        <v>1.9645400000000001E-4</v>
+      </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -39505,12 +39811,27 @@
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>2.7018712565561267E-7</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2"/>
+      <c r="H11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.6200000000000001E-5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s">
+        <v>134</v>
+      </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -39526,11 +39847,26 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>1.5751626939805468E-3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.52E-5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.52E-5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1.52E-5</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -39546,12 +39882,27 @@
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>1.5751626939805468E-3</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2"/>
+      <c r="H13" s="2">
+        <v>1.2931200000000001E-5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1.2931200000000001E-5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13">
+        <v>5.7767560000000001E-3</v>
+      </c>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -39567,12 +39918,27 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>2.3362049916770053E-4</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2"/>
+      <c r="H14">
+        <v>5.7767560000000001E-3</v>
+      </c>
+      <c r="I14">
+        <v>5.7767560000000001E-3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14">
+        <v>1.037509E-3</v>
+      </c>
+      <c r="L14">
+        <v>1.037509E-3</v>
+      </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -39588,12 +39954,27 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>7.5357528215928729E-6</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2"/>
+      <c r="H15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15">
+        <v>1.5525719999999999E-3</v>
+      </c>
+      <c r="K15">
+        <v>1.5525719999999999E-3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -39609,9 +39990,24 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>1.5751626939805468E-3</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2"/>
+      <c r="H16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16">
+        <v>2.52444E-4</v>
+      </c>
+      <c r="J16">
+        <v>2.52444E-4</v>
+      </c>
+      <c r="K16">
+        <v>2.52444E-4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -39629,10 +40025,25 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>1.5751626939805468E-3</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
+      <c r="H17">
+        <v>1.7378900000000001E-4</v>
+      </c>
+      <c r="I17">
+        <v>1.7378900000000001E-4</v>
+      </c>
+      <c r="J17">
+        <v>1.7378900000000001E-4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" s="2">
+        <v>5.3667600000000001E-5</v>
+      </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -39650,10 +40061,25 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>2.0163561664051322E-8</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
+      <c r="H18" s="2">
+        <v>5.3667600000000001E-5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5.3667600000000001E-5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="2">
+        <v>8.3629599999999996E-5</v>
+      </c>
+      <c r="L18" s="2">
+        <v>8.3629599999999996E-5</v>
+      </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -39671,9 +40097,24 @@
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>4.8962427160039377E-8</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2"/>
+      <c r="H19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -39694,6 +40135,21 @@
         <v>0</v>
       </c>
       <c r="F20" s="2"/>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -39716,6 +40172,21 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <v>8.3600000000000001E-11</v>
+      </c>
+      <c r="I21" s="2">
+        <v>8.3600000000000001E-11</v>
+      </c>
+      <c r="J21" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" s="2">
+        <v>5.3699999999999999E-11</v>
+      </c>
       <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -39734,10 +40205,25 @@
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>2.0187915151132279E-20</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
+      <c r="H22" s="2">
+        <v>5.3699999999999999E-11</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5.3699999999999999E-11</v>
+      </c>
+      <c r="J22" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1.5199999999999999E-10</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1.5199999999999999E-10</v>
+      </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -39755,10 +40241,25 @@
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>1.6174470614100691E-19</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
+      <c r="H23" s="2">
+        <v>1.5199999999999999E-10</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1.5199999999999999E-10</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1.5199999999999999E-10</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1.5199999999999999E-10</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1.5199999999999999E-10</v>
+      </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -39776,10 +40277,25 @@
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>1.6174470614100691E-19</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
+      <c r="H24" s="2">
+        <v>1.5199999999999999E-10</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1.5199999999999999E-10</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1.5199999999999999E-10</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1.5199999999999999E-10</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1.5199999999999999E-10</v>
+      </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -39801,6 +40317,21 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
+      <c r="H25" s="2">
+        <v>2.9799999999999999E-8</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2.9799999999999999E-8</v>
+      </c>
+      <c r="J25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="2">
+        <v>2.98484E-5</v>
+      </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -39821,6 +40352,21 @@
         <v>0</v>
       </c>
       <c r="F26" s="2"/>
+      <c r="H26" t="s">
+        <v>133</v>
+      </c>
+      <c r="I26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="2">
+        <v>2.1650799999999999E-5</v>
+      </c>
+      <c r="L26" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -39842,6 +40388,21 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
+      <c r="H27" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1.2300000000000001E-5</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1.2300000000000001E-5</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1.2300000000000001E-5</v>
+      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -39862,6 +40423,21 @@
         <v>0</v>
       </c>
       <c r="F28" s="2"/>
+      <c r="H28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I28" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" t="s">
+        <v>134</v>
+      </c>
+      <c r="K28" t="s">
+        <v>134</v>
+      </c>
+      <c r="L28" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -39883,6 +40459,21 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
+      <c r="H29" s="2">
+        <v>1.7379000000000001E-5</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1.7379000000000001E-5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29" t="s">
+        <v>134</v>
+      </c>
+      <c r="L29" s="2">
+        <v>7.1799999999999999E-6</v>
+      </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -39903,6 +40494,21 @@
         <v>0</v>
       </c>
       <c r="F30" s="2"/>
+      <c r="H30" s="2">
+        <v>7.1799999999999999E-6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" t="s">
+        <v>134</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2.3383600000000001E-5</v>
+      </c>
+      <c r="L30" t="s">
+        <v>151</v>
+      </c>
       <c r="Q30" s="6" t="s">
         <v>141</v>
       </c>
@@ -39927,16 +40533,18 @@
       </c>
       <c r="F31" s="2"/>
       <c r="P31" s="2">
-        <v>45000000000000</v>
-      </c>
-      <c r="Q31" s="7"/>
+        <v>90000000000000</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>144</v>
       </c>
       <c r="E32" s="2" t="e">
-        <f t="shared" ref="E32:E62" si="2">B32/$D$1</f>
+        <f t="shared" ref="E32" si="2">B32/$D$1</f>
         <v>#VALUE!</v>
       </c>
       <c r="F32" s="2" t="e">
@@ -39970,17 +40578,16 @@
         <v>0</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -40004,7 +40611,7 @@
         <v>1264707000000</v>
       </c>
       <c r="P33" s="2">
-        <f t="shared" ref="P33:P55" si="4">$P$31/20/5.7*B33/2/N33</f>
+        <f>$P$31/20/5.7*B33/2/N33</f>
         <v>0</v>
       </c>
     </row>
@@ -40013,24 +40620,23 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="C34" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.12704564479863081</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -40054,8 +40660,8 @@
         <v>216250500000</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="P33:P55" si="4">$P$31/20/5.7*B34/2/N34</f>
+        <v>0.12704564479863081</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -40063,24 +40669,23 @@
         <v>2</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.16950000000000001</v>
       </c>
       <c r="C35" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.1161692559211611E-2</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -40105,7 +40710,7 @@
       </c>
       <c r="P35" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.1161692559211611E-2</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -40120,17 +40725,16 @@
         <v>0</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -40163,24 +40767,23 @@
         <v>4</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="C37" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.10918010111268417</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -40205,7 +40808,7 @@
       </c>
       <c r="P37" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.10918010111268417</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -40213,24 +40816,23 @@
         <v>5</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>6.2799999999999995E-2</v>
       </c>
       <c r="C38" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.1107969414686761E-2</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -40255,7 +40857,7 @@
       </c>
       <c r="P38" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.1107969414686761E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -40263,24 +40865,23 @@
         <v>6</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.1101</v>
       </c>
       <c r="C39" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.0348098237045205E-2</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -40305,7 +40906,7 @@
       </c>
       <c r="P39" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.0348098237045205E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -40313,24 +40914,23 @@
         <v>7</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="C40" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.61614014489144E-2</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -40355,7 +40955,7 @@
       </c>
       <c r="P40" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.61614014489144E-2</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -40363,24 +40963,23 @@
         <v>8</v>
       </c>
       <c r="B41">
-        <v>5.1999999999999998E-2</v>
+        <v>3.6600000000000001E-2</v>
       </c>
       <c r="C41" s="9">
         <f t="shared" si="3"/>
-        <v>3.0573402278289169E-2</v>
+        <v>4.3037943207130142E-2</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="2">
-        <f t="shared" si="2"/>
-        <v>0.27671119137216371</v>
+        <v>301</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -40405,7 +41004,7 @@
       </c>
       <c r="P41" s="2">
         <f t="shared" si="4"/>
-        <v>3.0573402278289169E-2</v>
+        <v>4.3037943207130142E-2</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -40413,24 +41012,23 @@
         <v>9</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>9.8100000000000007E-2</v>
       </c>
       <c r="C42" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.6215612518745098E-2</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E42" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -40455,7 +41053,7 @@
       </c>
       <c r="P42" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.6215612518745098E-2</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -40463,24 +41061,23 @@
         <v>10</v>
       </c>
       <c r="B43">
-        <v>9.0399999999999994E-2</v>
+        <v>6.3600000000000004E-2</v>
       </c>
       <c r="C43" s="9">
         <f t="shared" si="3"/>
-        <v>2.1108827137398572E-2</v>
+        <v>2.9701801016339589E-2</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E43" s="2">
-        <f t="shared" si="2"/>
-        <v>0.48105176346237688</v>
+        <v>301</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -40505,7 +41102,7 @@
       </c>
       <c r="P43" s="2">
         <f t="shared" si="4"/>
-        <v>2.1108827137398572E-2</v>
+        <v>2.9701801016339589E-2</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -40513,24 +41110,23 @@
         <v>11</v>
       </c>
       <c r="B44">
-        <v>0.12870000000000001</v>
+        <v>0</v>
       </c>
       <c r="C44" s="9">
         <f t="shared" si="3"/>
-        <v>8.5595166581717355E-3</v>
+        <v>0</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="2"/>
-        <v>0.68486019864610526</v>
+        <v>301</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -40555,7 +41151,7 @@
       </c>
       <c r="P44" s="2">
         <f t="shared" si="4"/>
-        <v>8.5595166581717355E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -40563,24 +41159,23 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <v>3.4500000000000003E-2</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="C45" s="9">
         <f t="shared" si="3"/>
-        <v>1.4481667457081206E-2</v>
+        <v>2.0400261983018742E-2</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E45" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18358723273730093</v>
+        <v>301</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -40605,7 +41200,7 @@
       </c>
       <c r="P45" s="2">
         <f t="shared" si="4"/>
-        <v>1.4481667457081206E-2</v>
+        <v>2.0400261983018742E-2</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -40613,24 +41208,23 @@
         <v>13</v>
       </c>
       <c r="B46">
-        <v>0.114</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="C46" s="9">
         <f t="shared" si="3"/>
-        <v>3.2490819899341994E-2</v>
+        <v>4.571515361275838E-2</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" s="2">
-        <f t="shared" si="2"/>
-        <v>0.60663607339282044</v>
+        <v>301</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -40655,7 +41249,7 @@
       </c>
       <c r="P46" s="2">
         <f t="shared" si="4"/>
-        <v>3.2490819899341994E-2</v>
+        <v>4.571515361275838E-2</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -40670,17 +41264,16 @@
         <v>0</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -40713,24 +41306,23 @@
         <v>15</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C48" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.1975597665258407E-2</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E48" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -40755,7 +41347,7 @@
       </c>
       <c r="P48" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.1975597665258407E-2</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -40763,24 +41355,23 @@
         <v>16</v>
       </c>
       <c r="B49">
-        <v>9.1200000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="C49" s="9">
         <f t="shared" si="3"/>
-        <v>1.0188977224805631E-2</v>
+        <v>0</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" si="2"/>
-        <v>0.48530885871425633</v>
+        <v>301</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -40805,7 +41396,7 @@
       </c>
       <c r="P49" s="2">
         <f t="shared" si="4"/>
-        <v>1.0188977224805631E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -40813,24 +41404,23 @@
         <v>17</v>
       </c>
       <c r="B50">
-        <v>4.0500000000000001E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="C50" s="9">
         <f t="shared" si="3"/>
-        <v>1.9400287828099102E-2</v>
+        <v>2.7304108795102443E-2</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E50" s="2">
-        <f t="shared" si="2"/>
-        <v>0.21551544712639673</v>
+        <v>301</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -40855,7 +41445,7 @@
       </c>
       <c r="P50" s="2">
         <f t="shared" si="4"/>
-        <v>1.9400287828099102E-2</v>
+        <v>2.7304108795102443E-2</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -40863,24 +41453,23 @@
         <v>18</v>
       </c>
       <c r="B51">
-        <v>3.8899999999999997E-2</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="C51" s="9">
         <f t="shared" si="3"/>
-        <v>1.8392655758024037E-2</v>
+        <v>2.591047649202358E-2</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E51" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20700125662263782</v>
+        <v>301</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -40905,7 +41494,7 @@
       </c>
       <c r="P51" s="2">
         <f t="shared" si="4"/>
-        <v>1.8392655758024037E-2</v>
+        <v>2.591047649202358E-2</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -40913,24 +41502,23 @@
         <v>19</v>
       </c>
       <c r="B52">
-        <v>0.14219999999999999</v>
+        <v>0</v>
       </c>
       <c r="C52" s="9">
         <f t="shared" si="3"/>
-        <v>7.971471504938028E-3</v>
+        <v>0</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E52" s="2">
-        <f t="shared" si="2"/>
-        <v>0.75669868102157067</v>
+        <v>301</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -40955,7 +41543,7 @@
       </c>
       <c r="P52" s="2">
         <f t="shared" si="4"/>
-        <v>7.971471504938028E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -40963,24 +41551,23 @@
         <v>20</v>
       </c>
       <c r="B53">
-        <v>8.0199999999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="C53" s="9">
         <f t="shared" si="3"/>
-        <v>6.9058079256815192E-3</v>
+        <v>0</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E53" s="2">
-        <f t="shared" si="2"/>
-        <v>0.426773799000914</v>
+        <v>301</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -41005,7 +41592,7 @@
       </c>
       <c r="P53" s="2">
         <f t="shared" si="4"/>
-        <v>6.9058079256815192E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -41013,24 +41600,23 @@
         <v>21</v>
       </c>
       <c r="B54">
-        <v>4.8599999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="C54" s="9">
         <f t="shared" si="3"/>
-        <v>8.5331954412649971E-3</v>
+        <v>0</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E54" s="2">
-        <f t="shared" si="2"/>
-        <v>0.25861853655167605</v>
+        <v>301</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -41055,7 +41641,7 @@
       </c>
       <c r="P54" s="2">
         <f t="shared" si="4"/>
-        <v>8.5331954412649971E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -41063,24 +41649,23 @@
         <v>22</v>
       </c>
       <c r="B55">
-        <v>0.13880000000000001</v>
+        <v>9.7699999999999995E-2</v>
       </c>
       <c r="C55" s="9">
         <f t="shared" si="3"/>
-        <v>1.3283900379781735E-2</v>
+        <v>1.8700822292574571E-2</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E55" s="2">
-        <f t="shared" si="2"/>
-        <v>0.73860602620108318</v>
+        <v>301</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -41105,7 +41690,7 @@
       </c>
       <c r="P55" s="2">
         <f t="shared" si="4"/>
-        <v>1.3283900379781735E-2</v>
+        <v>1.8700822292574571E-2</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -41120,17 +41705,16 @@
         <v>0</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E56" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -41169,17 +41753,16 @@
         <v>0</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E57" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -41218,17 +41801,16 @@
         <v>0</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E58" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -41268,17 +41850,16 @@
         <v>0</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -41318,17 +41899,16 @@
         <v>0</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E60" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H60">
         <v>4</v>
@@ -41368,17 +41948,16 @@
         <v>0</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E61" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -41418,17 +41997,16 @@
         <v>0</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E62" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H62">
         <v>4</v>
@@ -41463,84 +42041,84 @@
       </c>
       <c r="D64" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E64" s="2">
+        <v>_</v>
+      </c>
+      <c r="E64" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>_</v>
       </c>
       <c r="F64" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G64" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" ref="I64:I92" si="6">"  "&amp;C64&amp;", "&amp;D64&amp;", "&amp;E64&amp;", "&amp;F64&amp;", "&amp;G64&amp;","</f>
-        <v xml:space="preserve">  0,   _, 0,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P64" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C65" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.12704564479863081</v>
       </c>
       <c r="D65" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E65" s="2">
+        <v>_</v>
+      </c>
+      <c r="E65" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>_</v>
       </c>
       <c r="F65" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G65" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,   _, 0,  _,   _,</v>
+        <v xml:space="preserve">  0.127045644798631, _, _, _, _,</v>
       </c>
       <c r="P65" t="s">
-        <v>148</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C66" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.1161692559211611E-2</v>
       </c>
       <c r="D66" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E66" s="2">
+        <v>_</v>
+      </c>
+      <c r="E66" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>_</v>
       </c>
       <c r="F66" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G66" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,   _, 0,  _,   _,</v>
+        <v xml:space="preserve">  0.0611616925592116, _, _, _, _,</v>
       </c>
       <c r="P66" t="s">
-        <v>148</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="3:16" x14ac:dyDescent="0.25">
@@ -41550,316 +42128,316 @@
       </c>
       <c r="D67" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E67" s="2">
+        <v>_</v>
+      </c>
+      <c r="E67" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>_</v>
       </c>
       <c r="F67" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G67" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,   _, 0,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P67" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C68" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.10918010111268417</v>
       </c>
       <c r="D68" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E68" s="2">
+        <v>_</v>
+      </c>
+      <c r="E68" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>_</v>
       </c>
       <c r="F68" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G68" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,   _, 0,  _,   _,</v>
+        <v xml:space="preserve">  0.109180101112684, _, _, _, _,</v>
       </c>
       <c r="P68" t="s">
-        <v>148</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C69" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.1107969414686761E-2</v>
       </c>
       <c r="D69" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E69" s="2">
+        <v>_</v>
+      </c>
+      <c r="E69" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>_</v>
       </c>
       <c r="F69" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G69" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,   _, 0,  _,   _,</v>
+        <v xml:space="preserve">  0.0211079694146868, _, _, _, _,</v>
       </c>
       <c r="P69" t="s">
-        <v>148</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C70" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.0348098237045205E-2</v>
       </c>
       <c r="D70" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E70" s="2">
+        <v>_</v>
+      </c>
+      <c r="E70" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>_</v>
       </c>
       <c r="F70" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G70" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,   _, 0,  _,   _,</v>
+        <v xml:space="preserve">  0.0203480982370452, _, _, _, _,</v>
       </c>
       <c r="P70" t="s">
-        <v>148</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C71" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.61614014489144E-2</v>
       </c>
       <c r="D71" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E71" s="2">
+        <v>_</v>
+      </c>
+      <c r="E71" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>_</v>
       </c>
       <c r="F71" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G71" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,   _, 0,  _,   _,</v>
+        <v xml:space="preserve">  0.0661614014489144, _, _, _, _,</v>
       </c>
       <c r="P71" t="s">
-        <v>148</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C72" s="15">
         <f t="shared" si="5"/>
-        <v>3.0573402278289169E-2</v>
+        <v>4.3037943207130142E-2</v>
       </c>
       <c r="D72" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E72" s="2">
+        <v>_</v>
+      </c>
+      <c r="E72" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.27671119137216371</v>
+        <v>_</v>
       </c>
       <c r="F72" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G72" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0.0305734022782892,   _, 0.276711191372164,  _,   _,</v>
+        <v xml:space="preserve">  0.0430379432071301, _, _, _, _,</v>
       </c>
       <c r="P72" t="s">
-        <v>149</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C73" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.6215612518745098E-2</v>
       </c>
       <c r="D73" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E73" s="2">
+        <v>_</v>
+      </c>
+      <c r="E73" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>_</v>
       </c>
       <c r="F73" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G73" s="2" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,   _, 0,  _,   _,</v>
+        <v xml:space="preserve">  0.0262156125187451, _, _, _, _,</v>
       </c>
       <c r="P73" t="s">
-        <v>148</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C74" s="15">
         <f t="shared" ref="C74:G83" si="7">C43</f>
-        <v>2.1108827137398572E-2</v>
+        <v>2.9701801016339589E-2</v>
       </c>
       <c r="D74" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E74" s="2">
+        <v>_</v>
+      </c>
+      <c r="E74" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>0.48105176346237688</v>
+        <v>_</v>
       </c>
       <c r="F74" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G74" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0.0211088271373986,   _, 0.481051763462377,  _,   _,</v>
+        <v xml:space="preserve">  0.0297018010163396, _, _, _, _,</v>
       </c>
       <c r="P74" t="s">
-        <v>150</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C75" s="15">
         <f t="shared" si="7"/>
-        <v>8.5595166581717355E-3</v>
+        <v>0</v>
       </c>
       <c r="D75" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E75" s="2">
+        <v>_</v>
+      </c>
+      <c r="E75" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>0.68486019864610526</v>
+        <v>_</v>
       </c>
       <c r="F75" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G75" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0.00855951665817174,   _, 0.684860198646105,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P75" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C76" s="15">
         <f t="shared" si="7"/>
-        <v>1.4481667457081206E-2</v>
+        <v>2.0400261983018742E-2</v>
       </c>
       <c r="D76" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E76" s="2">
+        <v>_</v>
+      </c>
+      <c r="E76" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>0.18358723273730093</v>
+        <v>_</v>
       </c>
       <c r="F76" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G76" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0.0144816674570812,   _, 0.183587232737301,  _,   _,</v>
+        <v xml:space="preserve">  0.0204002619830187, _, _, _, _,</v>
       </c>
       <c r="P76" t="s">
-        <v>152</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C77" s="15">
         <f t="shared" si="7"/>
-        <v>3.2490819899341994E-2</v>
+        <v>4.571515361275838E-2</v>
       </c>
       <c r="D77" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E77" s="2">
+        <v>_</v>
+      </c>
+      <c r="E77" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>0.60663607339282044</v>
+        <v>_</v>
       </c>
       <c r="F77" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G77" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0.032490819899342,   _, 0.60663607339282,  _,   _,</v>
+        <v xml:space="preserve">  0.0457151536127584, _, _, _, _,</v>
       </c>
       <c r="P77" t="s">
-        <v>153</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="3:16" x14ac:dyDescent="0.25">
@@ -41869,258 +42447,258 @@
       </c>
       <c r="D78" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E78" s="2">
+        <v>_</v>
+      </c>
+      <c r="E78" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>_</v>
       </c>
       <c r="F78" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G78" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,   _, 0,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P78" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C79" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.1975597665258407E-2</v>
       </c>
       <c r="D79" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E79" s="2">
+        <v>_</v>
+      </c>
+      <c r="E79" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>_</v>
       </c>
       <c r="F79" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G79" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,   _, 0,  _,   _,</v>
+        <v xml:space="preserve">  0.0219755976652584, _, _, _, _,</v>
       </c>
       <c r="P79" t="s">
-        <v>148</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C80" s="15">
         <f t="shared" si="7"/>
-        <v>1.0188977224805631E-2</v>
+        <v>0</v>
       </c>
       <c r="D80" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E80" s="2">
+        <v>_</v>
+      </c>
+      <c r="E80" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>0.48530885871425633</v>
+        <v>_</v>
       </c>
       <c r="F80" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G80" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0.0101889772248056,   _, 0.485308858714256,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P80" t="s">
-        <v>154</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C81" s="15">
         <f t="shared" si="7"/>
-        <v>1.9400287828099102E-2</v>
+        <v>2.7304108795102443E-2</v>
       </c>
       <c r="D81" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E81" s="2">
+        <v>_</v>
+      </c>
+      <c r="E81" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>0.21551544712639673</v>
+        <v>_</v>
       </c>
       <c r="F81" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G81" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0.0194002878280991,   _, 0.215515447126397,  _,   _,</v>
+        <v xml:space="preserve">  0.0273041087951024, _, _, _, _,</v>
       </c>
       <c r="P81" t="s">
-        <v>155</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C82" s="15">
         <f t="shared" si="7"/>
-        <v>1.8392655758024037E-2</v>
+        <v>2.591047649202358E-2</v>
       </c>
       <c r="D82" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E82" s="2">
+        <v>_</v>
+      </c>
+      <c r="E82" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>0.20700125662263782</v>
+        <v>_</v>
       </c>
       <c r="F82" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G82" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0.018392655758024,   _, 0.207001256622638,  _,   _,</v>
+        <v xml:space="preserve">  0.0259104764920236, _, _, _, _,</v>
       </c>
       <c r="P82" t="s">
-        <v>156</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C83" s="15">
         <f t="shared" si="7"/>
-        <v>7.971471504938028E-3</v>
+        <v>0</v>
       </c>
       <c r="D83" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E83" s="2">
+        <v>_</v>
+      </c>
+      <c r="E83" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>0.75669868102157067</v>
+        <v>_</v>
       </c>
       <c r="F83" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G83" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0.00797147150493803,   _, 0.756698681021571,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P83" t="s">
-        <v>157</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C84" s="15">
         <f t="shared" ref="C84:G93" si="8">C53</f>
-        <v>6.9058079256815192E-3</v>
+        <v>0</v>
       </c>
       <c r="D84" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E84" s="2">
+        <v>_</v>
+      </c>
+      <c r="E84" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0.426773799000914</v>
+        <v>_</v>
       </c>
       <c r="F84" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G84" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0.00690580792568152,   _, 0.426773799000914,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P84" t="s">
-        <v>158</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C85" s="15">
         <f t="shared" si="8"/>
-        <v>8.5331954412649971E-3</v>
+        <v>0</v>
       </c>
       <c r="D85" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E85" s="2">
+        <v>_</v>
+      </c>
+      <c r="E85" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0.25861853655167605</v>
+        <v>_</v>
       </c>
       <c r="F85" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G85" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0.008533195441265,   _, 0.258618536551676,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P85" t="s">
-        <v>159</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C86" s="15">
         <f t="shared" si="8"/>
-        <v>1.3283900379781735E-2</v>
+        <v>1.8700822292574571E-2</v>
       </c>
       <c r="D86" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E86" s="2">
+        <v>_</v>
+      </c>
+      <c r="E86" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0.73860602620108318</v>
+        <v>_</v>
       </c>
       <c r="F86" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G86" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I86" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0.0132839003797817,   _, 0.738606026201083,  _,   _,</v>
+        <v xml:space="preserve">  0.0187008222925746, _, _, _, _,</v>
       </c>
       <c r="P86" t="s">
-        <v>160</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="3:16" x14ac:dyDescent="0.25">
@@ -42130,26 +42708,26 @@
       </c>
       <c r="D87" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E87" s="2">
+        <v>_</v>
+      </c>
+      <c r="E87" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>_</v>
       </c>
       <c r="F87" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G87" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,   _, 0,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P87" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="3:16" x14ac:dyDescent="0.25">
@@ -42159,26 +42737,26 @@
       </c>
       <c r="D88" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E88" s="2">
+        <v>_</v>
+      </c>
+      <c r="E88" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>_</v>
       </c>
       <c r="F88" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G88" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,   _, 0,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P88" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="3:16" x14ac:dyDescent="0.25">
@@ -42188,26 +42766,26 @@
       </c>
       <c r="D89" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E89" s="2">
+        <v>_</v>
+      </c>
+      <c r="E89" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>_</v>
       </c>
       <c r="F89" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G89" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,   _, 0,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P89" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="3:16" x14ac:dyDescent="0.25">
@@ -42217,26 +42795,26 @@
       </c>
       <c r="D90" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E90" s="2">
+        <v>_</v>
+      </c>
+      <c r="E90" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>_</v>
       </c>
       <c r="F90" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G90" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,   _, 0,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P90" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="3:16" x14ac:dyDescent="0.25">
@@ -42246,26 +42824,26 @@
       </c>
       <c r="D91" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E91" s="2">
+        <v>_</v>
+      </c>
+      <c r="E91" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>_</v>
       </c>
       <c r="F91" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G91" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,   _, 0,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P91" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="3:16" x14ac:dyDescent="0.25">
@@ -42275,26 +42853,26 @@
       </c>
       <c r="D92" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E92" s="2">
+        <v>_</v>
+      </c>
+      <c r="E92" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>_</v>
       </c>
       <c r="F92" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G92" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  0,   _, 0,  _,   _,</v>
+        <v xml:space="preserve">  0, _, _, _, _,</v>
       </c>
       <c r="P92" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="3:16" x14ac:dyDescent="0.25">
@@ -42304,26 +42882,26 @@
       </c>
       <c r="D93" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
-      </c>
-      <c r="E93" s="2">
+        <v>_</v>
+      </c>
+      <c r="E93" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>_</v>
       </c>
       <c r="F93" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> _</v>
+        <v>_</v>
       </c>
       <c r="G93" s="2" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  _</v>
+        <v>_</v>
       </c>
       <c r="I93" t="str">
         <f>"  "&amp;C93&amp;", "&amp;D93&amp;", "&amp;E93&amp;", "&amp;F93&amp;", "&amp;G93&amp;" ;"</f>
-        <v xml:space="preserve">  0,   _, 0,  _,   _ ;</v>
+        <v xml:space="preserve">  0, _, _, _, _ ;</v>
       </c>
       <c r="P93" t="s">
-        <v>161</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/R/Scaling_biomass_logfile_output.xlsx
+++ b/R/Scaling_biomass_logfile_output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="820" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="820" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="20180619b" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="ISQ" sheetId="10" r:id="rId11"/>
     <sheet name="desiredBiomass" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -8996,7 +8996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG116"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N64" sqref="N64:N93"/>
     </sheetView>
   </sheetViews>
@@ -13780,8 +13780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28951,7 +28951,7 @@
         <v>1</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L98" si="4">I67/K67</f>
+        <f t="shared" ref="L67:L91" si="4">I67/K67</f>
         <v>18017.283443</v>
       </c>
       <c r="N67" s="1">
@@ -30415,7 +30415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
@@ -35197,7 +35197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS93"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
@@ -39335,7 +39335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
@@ -40660,7 +40660,7 @@
         <v>216250500000</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" ref="P33:P55" si="4">$P$31/20/5.7*B34/2/N34</f>
+        <f t="shared" ref="P34:P55" si="4">$P$31/20/5.7*B34/2/N34</f>
         <v>0.12704564479863081</v>
       </c>
     </row>

--- a/R/Scaling_biomass_logfile_output.xlsx
+++ b/R/Scaling_biomass_logfile_output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="820" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="820" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="20180619b" sheetId="1" r:id="rId1"/>
@@ -30415,8 +30415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35197,8 +35197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V41" sqref="V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
